--- a/doc/PETR4cg_1anos.xlsx
+++ b/doc/PETR4cg_1anos.xlsx
@@ -176,6 +176,9 @@
           <c:tx>
             <c:v>Retornos da Ação</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1685,6 +1688,9 @@
           <c:tx>
             <c:v>Retornos do Mercado</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="9525"/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>

--- a/doc/PETR4cg_1anos.xlsx
+++ b/doc/PETR4cg_1anos.xlsx
@@ -938,745 +938,745 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>0.5154639175257714</c:v>
+                  <c:v>0.005154639175257714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.507122507122517</c:v>
+                  <c:v>-0.02507122507122517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.7890122735242477</c:v>
+                  <c:v>-0.007890122735242477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.150220913107526</c:v>
+                  <c:v>-0.02150220913107526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.8127633955448355</c:v>
+                  <c:v>-0.008127633955448355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.9408194233687217</c:v>
+                  <c:v>0.009408194233687217</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.201773835920179</c:v>
+                  <c:v>-0.0920177383592018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.9768009768009733</c:v>
+                  <c:v>-0.009768009768009733</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.805178791615304</c:v>
+                  <c:v>0.02805178791615304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.709145427286363</c:v>
+                  <c:v>-0.01709145427286363</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.7626601586333104</c:v>
+                  <c:v>0.007626601586333104</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.06055101422949294</c:v>
+                  <c:v>-0.0006055101422949294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.272644653135401</c:v>
+                  <c:v>-0.00272644653135401</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4252733900364625</c:v>
+                  <c:v>0.004252733900364625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.209921355111909</c:v>
+                  <c:v>0.01209921355111909</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.167961745367609</c:v>
+                  <c:v>-0.03167961745367609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.327160493827151</c:v>
+                  <c:v>0.01327160493827151</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11.8184587267743</c:v>
+                  <c:v>0.1181845872677429</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.116861890493048</c:v>
+                  <c:v>0.01116861890493048</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.155172413793094</c:v>
+                  <c:v>-0.02155172413793094</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3028634361233573</c:v>
+                  <c:v>0.003028634361233573</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2470491353280257</c:v>
+                  <c:v>0.002470491353280257</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.1095290251916903</c:v>
+                  <c:v>-0.001095290251916903</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7127192982456343</c:v>
+                  <c:v>0.007127192982456343</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.443658138268925</c:v>
+                  <c:v>0.05443658138268925</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1548786783686085</c:v>
+                  <c:v>0.001548786783686085</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-1.855670103092777</c:v>
+                  <c:v>-0.01855670103092777</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6827731092437173</c:v>
+                  <c:v>0.006827731092437173</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.7563901930099037</c:v>
+                  <c:v>0.007563901930099037</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.1294330830960533</c:v>
+                  <c:v>-0.001294330830960533</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.062726801451541</c:v>
+                  <c:v>0.01062726801451541</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.487304437035152</c:v>
+                  <c:v>-0.00487304437035152</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.9278350515463885</c:v>
+                  <c:v>-0.009278350515463885</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.09573361082206</c:v>
+                  <c:v>-0.0309573361082206</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.7516778523489975</c:v>
+                  <c:v>0.007516778523489975</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.358912869704221</c:v>
+                  <c:v>0.01358912869704221</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.8149316508937909</c:v>
+                  <c:v>0.008149316508937909</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-1.434159061277718</c:v>
+                  <c:v>-0.01434159061277718</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.9259259259259078</c:v>
+                  <c:v>-0.009259259259259078</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.4272363150867875</c:v>
+                  <c:v>-0.004272363150867875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.314025207830527</c:v>
+                  <c:v>0.01314025207830527</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-2.699841185812613</c:v>
+                  <c:v>-0.02699841185812613</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.3264417845484147</c:v>
+                  <c:v>-0.003264417845484147</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.627729257641918</c:v>
+                  <c:v>0.00627729257641918</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-1.491727691890421</c:v>
+                  <c:v>-0.01491727691890421</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-1.707048458149774</c:v>
+                  <c:v>-0.01707048458149774</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-3.557422969187685</c:v>
+                  <c:v>-0.03557422969187685</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.7551553877432449</c:v>
+                  <c:v>0.007551553877432449</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.239550302680892</c:v>
+                  <c:v>-0.01239550302680892</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-0.4378283712784592</c:v>
+                  <c:v>-0.004378283712784592</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5277044854881341</c:v>
+                  <c:v>0.005277044854881341</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.408282298046081</c:v>
+                  <c:v>0.00408282298046081</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5808887598025114</c:v>
+                  <c:v>0.005808887598025114</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.24169794975455</c:v>
+                  <c:v>0.0124169794975455</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-1.055333713633788</c:v>
+                  <c:v>-0.01055333713633788</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.2594407610262195</c:v>
+                  <c:v>-0.002594407610262195</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.8381502890173365</c:v>
+                  <c:v>-0.008381502890173365</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.9326726901777826</c:v>
+                  <c:v>0.009326726901777826</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.8663008951775852</c:v>
+                  <c:v>0.008663008951775852</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7443458345261833</c:v>
+                  <c:v>0.007443458345261833</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.2273373117362865</c:v>
+                  <c:v>-0.002273373117362865</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.854457419538579</c:v>
+                  <c:v>0.00854457419538579</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.049985879694994</c:v>
+                  <c:v>-0.03049985879694994</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-1.427323041071937</c:v>
+                  <c:v>-0.01427323041071937</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.3250591016548343</c:v>
+                  <c:v>0.003250591016548343</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.0589101620029564</c:v>
+                  <c:v>-0.000589101620029564</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-1.591511936339518</c:v>
+                  <c:v>-0.01591511936339518</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.95837076969153</c:v>
+                  <c:v>-0.0095837076969153</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.0302388872089443</c:v>
+                  <c:v>-0.000302388872089443</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-0.3629764065335883</c:v>
+                  <c:v>-0.003629764065335883</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.123254401942919</c:v>
+                  <c:v>-0.01123254401942919</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-1.228124040528089</c:v>
+                  <c:v>-0.01228124040528089</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-0.2175940317065583</c:v>
+                  <c:v>-0.002175940317065583</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.118380062305292</c:v>
+                  <c:v>-0.02118380062305292</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-1.432208784213884</c:v>
+                  <c:v>-0.01432208784213884</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.8395221181788814</c:v>
+                  <c:v>0.008395221181788814</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.352225424271535</c:v>
+                  <c:v>0.00352225424271535</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-3.095086151882576</c:v>
+                  <c:v>-0.03095086151882576</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.2634178465590997</c:v>
+                  <c:v>0.002634178465590997</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.711001642036127</c:v>
+                  <c:v>0.03711001642036127</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.4749841671944255</c:v>
+                  <c:v>0.004749841671944255</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.174598172076903</c:v>
+                  <c:v>0.02174598172076903</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.6785934608266375</c:v>
+                  <c:v>0.006785934608266375</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-1.899509803921562</c:v>
+                  <c:v>-0.01899509803921562</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.030605871330414</c:v>
+                  <c:v>0.01030605871330414</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>-1.483771251931998</c:v>
+                  <c:v>-0.01483771251931998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5647944775651004</c:v>
+                  <c:v>0.005647944775651004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.2808112324492851</c:v>
+                  <c:v>-0.002808112324492851</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.03128911138924328</c:v>
+                  <c:v>-0.0003128911138924328</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.657276995305156</c:v>
+                  <c:v>0.00657276995305156</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.09328358208953169</c:v>
+                  <c:v>-0.0009328358208953169</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-3.143479614067857</c:v>
+                  <c:v>-0.03143479614067857</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.767352185089988</c:v>
+                  <c:v>0.01767352185089988</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-1.357751815598374</c:v>
+                  <c:v>-0.01357751815598374</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-2.720870678617149</c:v>
+                  <c:v>-0.02720870678617149</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.4606778545574119</c:v>
+                  <c:v>0.004606778545574119</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-2.030789387487719</c:v>
+                  <c:v>-0.02030789387487719</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.206619859578729</c:v>
+                  <c:v>0.02206619859578729</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.668302257114807</c:v>
+                  <c:v>0.01668302257114807</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.09652509652509078</c:v>
+                  <c:v>0.0009652509652509078</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>-1.189328190292516</c:v>
+                  <c:v>-0.01189328190292516</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>-1.073519843851656</c:v>
+                  <c:v>-0.01073519843851656</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.9865175928970737</c:v>
+                  <c:v>0.009865175928970737</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.009443178117864</c:v>
+                  <c:v>0.01009443178117864</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.7414571244358514</c:v>
+                  <c:v>0.007414571244358514</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.024000000000003</c:v>
+                  <c:v>0.01024000000000003</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>-0.5068102629078197</c:v>
+                  <c:v>-0.005068102629078197</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-1.496338745622405</c:v>
+                  <c:v>-0.01496338745622405</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.078215901745311</c:v>
+                  <c:v>0.07078215901745311</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.297917295502571</c:v>
+                  <c:v>0.01297917295502571</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.4767580452920139</c:v>
+                  <c:v>0.004767580452920139</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-2.224199288256223</c:v>
+                  <c:v>-0.02224199288256223</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-2.608431907794961</c:v>
+                  <c:v>-0.02608431907794961</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.090003114294602</c:v>
+                  <c:v>-0.01090003114294602</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-3.21158690176323</c:v>
+                  <c:v>-0.0321158690176323</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.2602472348731455</c:v>
+                  <c:v>0.002602472348731455</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.7462686567164201</c:v>
+                  <c:v>-0.007462686567164201</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-4.118993135011451</c:v>
+                  <c:v>-0.04118993135011451</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-2.318445277872483</c:v>
+                  <c:v>-0.02318445277872483</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>-0.3490401396160525</c:v>
+                  <c:v>-0.003490401396160525</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.168126094570912</c:v>
+                  <c:v>0.04168126094570912</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.4371217215870971</c:v>
+                  <c:v>0.004371217215870971</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.506528289253439</c:v>
+                  <c:v>0.01506528289253439</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>-0.527704485488123</c:v>
+                  <c:v>-0.00527704485488123</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.1989389920424411</c:v>
+                  <c:v>0.001989389920424411</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-3.077432164129712</c:v>
+                  <c:v>-0.03077432164129712</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.355752816660983</c:v>
+                  <c:v>0.02355752816660983</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.6337558372248253</c:v>
+                  <c:v>-0.006337558372248253</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-0.80563947633433</c:v>
+                  <c:v>-0.0080563947633433</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.590524534686977</c:v>
+                  <c:v>0.01590524534686977</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.2331778814123942</c:v>
+                  <c:v>-0.002331778814123942</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.2337228714524242</c:v>
+                  <c:v>-0.002337228714524242</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.7028112449799062</c:v>
+                  <c:v>-0.007028112449799062</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-0.06740815638693887</c:v>
+                  <c:v>-0.0006740815638693887</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-2.495784148397973</c:v>
+                  <c:v>-0.02495784148397973</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.521964718090629</c:v>
+                  <c:v>0.01521964718090629</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.4770017035775176</c:v>
+                  <c:v>-0.004770017035775176</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-12.21855298709097</c:v>
+                  <c:v>-0.1221855298709097</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.3419972640218871</c:v>
+                  <c:v>0.003419972640218871</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.443081117927735</c:v>
+                  <c:v>-0.00443081117927735</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-3.252310852447793</c:v>
+                  <c:v>-0.03252310852447793</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.061571125265393</c:v>
+                  <c:v>0.01061571125265393</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-2.100840336134446</c:v>
+                  <c:v>-0.02100840336134446</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>2.110157367668086</c:v>
+                  <c:v>0.02110157367668086</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-0.6654991243432606</c:v>
+                  <c:v>-0.006654991243432606</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-0.2115655853314524</c:v>
+                  <c:v>-0.002115655853314524</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.130742049469968</c:v>
+                  <c:v>-0.01130742049469968</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.7147962830593269</c:v>
+                  <c:v>0.007147962830593269</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.1419446415897863</c:v>
+                  <c:v>0.001419446415897863</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-5.067328136073701</c:v>
+                  <c:v>-0.05067328136073701</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-1.493094438223208</c:v>
+                  <c:v>-0.01493094438223208</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.7199696854869098</c:v>
+                  <c:v>0.007199696854869098</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.2633559066967495</c:v>
+                  <c:v>-0.002633559066967495</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.3017729158807825</c:v>
+                  <c:v>0.003017729158807825</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2.143663031214749</c:v>
+                  <c:v>-0.02143663031214749</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.6917755572636408</c:v>
+                  <c:v>-0.006917755572636408</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.2708978328173406</c:v>
+                  <c:v>-0.002708978328173406</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.2328288707799775</c:v>
+                  <c:v>0.002328288707799775</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.5807200929152101</c:v>
+                  <c:v>-0.005807200929152101</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.7788161993769416</c:v>
+                  <c:v>-0.007788161993769416</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.07849293563578774</c:v>
+                  <c:v>-0.0007849293563578774</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.628436763550666</c:v>
+                  <c:v>-0.00628436763550666</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.04347826086957</c:v>
+                  <c:v>0.0304347826086957</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-1.265822784810133</c:v>
+                  <c:v>-0.01265822784810133</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.2331002331002363</c:v>
+                  <c:v>0.002331002331002363</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.666666666666661</c:v>
+                  <c:v>0.01666666666666661</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-4.346168509340453</c:v>
+                  <c:v>-0.04346168509340453</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-1.235552012754082</c:v>
+                  <c:v>-0.01235552012754082</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>5.488297013720733</c:v>
+                  <c:v>0.05488297013720733</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-2.257077276205044</c:v>
+                  <c:v>-0.02257077276205044</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-2.035225048923672</c:v>
+                  <c:v>-0.02035225048923672</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-1.877746703955263</c:v>
+                  <c:v>-0.01877746703955263</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.08143322475570036</c:v>
+                  <c:v>-0.0008143322475570036</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.9372453137734382</c:v>
+                  <c:v>-0.009372453137734382</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.5347593582887722</c:v>
+                  <c:v>0.005347593582887722</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.2045826513911608</c:v>
+                  <c:v>0.002045826513911608</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.000816659861182</c:v>
+                  <c:v>0.02000816659861182</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-1.521216973578854</c:v>
+                  <c:v>-0.01521216973578854</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.08130081300814496</c:v>
+                  <c:v>-0.0008130081300814496</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.38323840520751</c:v>
+                  <c:v>0.0138323840520751</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-0.2006420545746401</c:v>
+                  <c:v>-0.002006420545746401</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.5227181342983389</c:v>
+                  <c:v>0.005227181342983389</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>1.560000000000006</c:v>
+                  <c:v>0.01560000000000006</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.1181567546278073</c:v>
+                  <c:v>0.001181567546278073</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-0.2360346184107076</c:v>
+                  <c:v>-0.002360346184107076</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1.813880126182965</c:v>
+                  <c:v>-0.01813880126182965</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>5.060240963855422</c:v>
+                  <c:v>0.05060240963855422</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.420489296636084</c:v>
+                  <c:v>-0.00420489296636084</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.9596928982725572</c:v>
+                  <c:v>-0.009596928982725572</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.7751937984496138</c:v>
+                  <c:v>0.007751937984496138</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2.192307692307693</c:v>
+                  <c:v>-0.02192307692307693</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>4.28627605190719</c:v>
+                  <c:v>0.0428627605190719</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.282051282051277</c:v>
+                  <c:v>0.01282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-4.020848845867453</c:v>
+                  <c:v>-0.04020848845867453</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.5042668735453892</c:v>
+                  <c:v>-0.005042668735453892</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-2.573099415204683</c:v>
+                  <c:v>-0.02573099415204683</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.8403361344537674</c:v>
+                  <c:v>-0.008403361344537674</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>2.42130750605325</c:v>
+                  <c:v>0.0242130750605325</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-4.137115839243499</c:v>
+                  <c:v>-0.04137115839243499</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.2055076037813519</c:v>
+                  <c:v>0.002055076037813519</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1.722723543888427</c:v>
+                  <c:v>-0.01722723543888427</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-4.632721202003331</c:v>
+                  <c:v>-0.04632721202003331</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-2.844638949671785</c:v>
+                  <c:v>-0.02844638949671785</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-2.072072072072073</c:v>
+                  <c:v>-0.02072072072072073</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1.057957681692723</c:v>
+                  <c:v>-0.01057957681692723</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-0.7903300790330192</c:v>
+                  <c:v>-0.007903300790330192</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-3.13964386129334</c:v>
+                  <c:v>-0.0313964386129334</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.015965166908539</c:v>
+                  <c:v>0.01015965166908539</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.149425287356332</c:v>
+                  <c:v>0.01149425287356332</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.4261363636363535</c:v>
+                  <c:v>0.004261363636363535</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1.320132013201325</c:v>
+                  <c:v>-0.01320132013201325</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.7644529383659782</c:v>
+                  <c:v>0.007644529383659782</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1.517306780464678</c:v>
+                  <c:v>-0.01517306780464678</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-2.407318247472312</c:v>
+                  <c:v>-0.02407318247472312</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.184015786877168</c:v>
+                  <c:v>0.01184015786877168</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-0.3900536323744652</c:v>
+                  <c:v>-0.003900536323744652</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-0.5873715124816492</c:v>
+                  <c:v>-0.005873715124816492</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>2.461841457410152</c:v>
+                  <c:v>0.02461841457410152</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-2.402691013935609</c:v>
+                  <c:v>-0.02402691013935609</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>2.264894140817342</c:v>
+                  <c:v>0.02264894140817342</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-3.129513721714006</c:v>
+                  <c:v>-0.03129513721714006</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-3.528827037773363</c:v>
+                  <c:v>-0.03528827037773363</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.2575991756826435</c:v>
+                  <c:v>0.002575991756826435</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-0.3083247687564405</c:v>
+                  <c:v>-0.003083247687564405</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-21.17061021170611</c:v>
+                  <c:v>-0.2117061021170611</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-4.05476566614007</c:v>
+                  <c:v>-0.0405476566614007</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-1.591657519209655</c:v>
+                  <c:v>-0.01591657519209655</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.3904071388733943</c:v>
+                  <c:v>0.003904071388733943</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>4.222222222222238</c:v>
+                  <c:v>0.04222222222222238</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-1.49253731343284</c:v>
+                  <c:v>-0.0149253731343284</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>2.489177489177496</c:v>
+                  <c:v>0.02489177489177496</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.26715945089757</c:v>
+                  <c:v>0.0126715945089757</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.4171011470281538</c:v>
+                  <c:v>0.004171011470281538</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-1.869158878504684</c:v>
+                  <c:v>-0.01869158878504684</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-0.6878306878306817</c:v>
+                  <c:v>-0.006878306878306817</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3.356419818859879</c:v>
+                  <c:v>0.03356419818859879</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-2.52577319587628</c:v>
+                  <c:v>-0.0252577319587628</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1.53358011634056</c:v>
+                  <c:v>-0.0153358011634056</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1.020408163265318</c:v>
+                  <c:v>-0.01020408163265318</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-0.7053716766142082</c:v>
+                  <c:v>-0.007053716766142082</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-0.7103825136612008</c:v>
+                  <c:v>-0.007103825136612008</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-4.45789763346176</c:v>
+                  <c:v>-0.0445789763346176</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-2.13133640552996</c:v>
+                  <c:v>-0.0213133640552996</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.471453796350786</c:v>
+                  <c:v>0.01471453796350786</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-0.2900232018561266</c:v>
+                  <c:v>-0.002900232018561266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2450,745 +2450,745 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="247"/>
                 <c:pt idx="0">
-                  <c:v>0.4401921411134824</c:v>
+                  <c:v>0.004401921411134824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.8711535759449163</c:v>
+                  <c:v>-0.008711535759449163</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3250033283473286</c:v>
+                  <c:v>0.003250033283473286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6526725680458423</c:v>
+                  <c:v>0.006526725680458423</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.0535724133584381</c:v>
+                  <c:v>-0.000535724133584381</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.07557448416478652</c:v>
+                  <c:v>-0.0007557448416478652</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.8832778033536437</c:v>
+                  <c:v>-0.008832778033536437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.7481122942884832</c:v>
+                  <c:v>-0.007481122942884832</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.251480055516785</c:v>
+                  <c:v>0.01251480055516785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4529199552593788</c:v>
+                  <c:v>0.004529199552593788</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1672689400514349</c:v>
+                  <c:v>0.001672689400514349</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.7424230558383593</c:v>
+                  <c:v>-0.007424230558383593</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.2468634282768001</c:v>
+                  <c:v>-0.002468634282768001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2647491932199042</c:v>
+                  <c:v>0.002647491932199042</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.224192064951946</c:v>
+                  <c:v>0.01224192064951946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.7452526540280613</c:v>
+                  <c:v>-0.007452526540280613</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.9887798036465667</c:v>
+                  <c:v>-0.009887798036465667</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.4267204593063845</c:v>
+                  <c:v>-0.004267204593063845</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.6182766319536626</c:v>
+                  <c:v>0.006182766319536626</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.1893393381694031</c:v>
+                  <c:v>-0.001893393381694031</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.6494813438612801</c:v>
+                  <c:v>-0.006494813438612801</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1240117811192043</c:v>
+                  <c:v>0.001240117811192043</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.8720371864315624</c:v>
+                  <c:v>-0.008720371864315624</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.164865706323226</c:v>
+                  <c:v>-0.01164865706323226</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.604826825297634</c:v>
+                  <c:v>0.01604826825297634</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1468099738060058</c:v>
+                  <c:v>0.001468099738060058</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.6311376601838115</c:v>
+                  <c:v>-0.006311376601838115</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1607296665436131</c:v>
+                  <c:v>0.001607296665436131</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.08928846331475171</c:v>
+                  <c:v>0.0008928846331475171</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.6819802225735527</c:v>
+                  <c:v>0.006819802225735527</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.2408215900439714</c:v>
+                  <c:v>0.002408215900439714</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.7214171700416161</c:v>
+                  <c:v>0.007214171700416161</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.6188099324505147</c:v>
+                  <c:v>0.006188099324505147</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.7873400715479706</c:v>
+                  <c:v>-0.007873400715479706</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1489662057293506</c:v>
+                  <c:v>-0.001489662057293506</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1.073236219986418</c:v>
+                  <c:v>-0.01073236219986418</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.6195558827137737</c:v>
+                  <c:v>-0.006195558827137737</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.212503820742517</c:v>
+                  <c:v>0.02212503820742517</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.3231589375854993</c:v>
+                  <c:v>0.003231589375854993</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-1.011044434585662</c:v>
+                  <c:v>-0.01011044434585662</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.570636858914142</c:v>
+                  <c:v>0.00570636858914142</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2747209619943236</c:v>
+                  <c:v>0.002747209619943236</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.8567893356575373</c:v>
+                  <c:v>-0.008567893356575373</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.3597819597261354</c:v>
+                  <c:v>-0.003597819597261354</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.6226154530346584</c:v>
+                  <c:v>0.006226154530346584</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2761782562433535</c:v>
+                  <c:v>0.002761782562433535</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-0.3485026858875861</c:v>
+                  <c:v>-0.003485026858875861</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.311985592644671</c:v>
+                  <c:v>0.01311985592644671</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.8101162681375174</c:v>
+                  <c:v>-0.008101162681375174</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2513431147695533</c:v>
+                  <c:v>0.002513431147695533</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-0.9399022750614661</c:v>
+                  <c:v>-0.009399022750614661</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-0.5955419431682873</c:v>
+                  <c:v>-0.005955419431682873</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-1.693265714220538</c:v>
+                  <c:v>-0.01693265714220538</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.4069075029773828</c:v>
+                  <c:v>0.004069075029773828</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.259473857434811</c:v>
+                  <c:v>0.00259473857434811</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.146742993404203</c:v>
+                  <c:v>-0.00146742993404203</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.4610223131756519</c:v>
+                  <c:v>-0.004610223131756519</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.7400303563472654</c:v>
+                  <c:v>-0.007400303563472654</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.3060072866091446</c:v>
+                  <c:v>0.003060072866091446</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.6073491533689968</c:v>
+                  <c:v>0.006073491533689968</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.210533447761863</c:v>
+                  <c:v>-0.01210533447761863</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.1032427259094026</c:v>
+                  <c:v>0.001032427259094026</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-1.108916793978465</c:v>
+                  <c:v>-0.01108916793978465</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.006706708198578326</c:v>
+                  <c:v>-6.706708198578326e-05</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.4950087244351531</c:v>
+                  <c:v>0.004950087244351531</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5875573433368642</c:v>
+                  <c:v>0.005875573433368642</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.431980148583011</c:v>
+                  <c:v>0.00431980148583011</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.053484602917343</c:v>
+                  <c:v>0.01053484602917343</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-0.7940781639881433</c:v>
+                  <c:v>-0.007940781639881433</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5851209911202027</c:v>
+                  <c:v>0.005851209911202027</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.6812752982019665</c:v>
+                  <c:v>0.006812752982019665</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.4929609758334452</c:v>
+                  <c:v>-0.004929609758334452</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.063607924921794</c:v>
+                  <c:v>0.01063607924921794</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.422410860501722</c:v>
+                  <c:v>0.02422410860501722</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.4042043556367947</c:v>
+                  <c:v>-0.004042043556367947</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-0.1400538184336053</c:v>
+                  <c:v>-0.001400538184336053</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8602491865725037</c:v>
+                  <c:v>0.008602491865725037</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.3080646060036774</c:v>
+                  <c:v>0.003080646060036774</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.008644397689573</c:v>
+                  <c:v>-0.01008644397689573</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07886248748059099</c:v>
+                  <c:v>0.0007886248748059099</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.014808396368549</c:v>
+                  <c:v>-0.01014808396368549</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.6062938326095058</c:v>
+                  <c:v>0.006062938326095058</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.975408601042016</c:v>
+                  <c:v>0.00975408601042016</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-0.3453508037111419</c:v>
+                  <c:v>-0.003453508037111419</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.6802829340483596</c:v>
+                  <c:v>0.006802829340483596</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1123130107852255</c:v>
+                  <c:v>0.001123130107852255</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>-0.8169005182657063</c:v>
+                  <c:v>-0.008169005182657063</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.4292458444083103</c:v>
+                  <c:v>0.004292458444083103</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.3407453406259142</c:v>
+                  <c:v>0.003407453406259142</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-0.3870097942027861</c:v>
+                  <c:v>-0.003870097942027861</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8259903088068343</c:v>
+                  <c:v>0.008259903088068343</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.3901232982275848</c:v>
+                  <c:v>0.003901232982275848</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.011935651271401</c:v>
+                  <c:v>0.01011935651271401</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.452316076294281</c:v>
+                  <c:v>0.02452316076294281</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.2155243874133794</c:v>
+                  <c:v>-0.002155243874133794</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.364568278829026</c:v>
+                  <c:v>0.01364568278829026</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.07304847227936895</c:v>
+                  <c:v>-0.0007304847227936895</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.1416976892376853</c:v>
+                  <c:v>-0.001416976892376853</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.6591440411184424</c:v>
+                  <c:v>0.006591440411184424</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.2767433987813206</c:v>
+                  <c:v>0.002767433987813206</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.700494554683486</c:v>
+                  <c:v>0.02700494554683486</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.68723043201584</c:v>
+                  <c:v>0.0168723043201584</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.5438453062240001</c:v>
+                  <c:v>0.005438453062240001</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>-0.6787230474576522</c:v>
+                  <c:v>-0.006787230474576522</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>-1.285971928173768</c:v>
+                  <c:v>-0.01285971928173768</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.72560489231588</c:v>
+                  <c:v>0.0172560489231588</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>-0.8192542325205276</c:v>
+                  <c:v>-0.008192542325205276</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.8662499445848404</c:v>
+                  <c:v>0.008662499445848404</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>-0.326985108921396</c:v>
+                  <c:v>-0.00326985108921396</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>-0.7447107119048502</c:v>
+                  <c:v>-0.007447107119048502</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>-0.04909696650885476</c:v>
+                  <c:v>-0.0004909696650885476</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-1.594367946992448</c:v>
+                  <c:v>-0.01594367946992448</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.5371822815658955</c:v>
+                  <c:v>-0.005371822815658955</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.6738428045683031</c:v>
+                  <c:v>0.006738428045683031</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-1.108064006287857</c:v>
+                  <c:v>-0.01108064006287857</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.2689807002064448</c:v>
+                  <c:v>0.002689807002064448</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.372920212581197</c:v>
+                  <c:v>0.01372920212581197</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.8636244197249621</c:v>
+                  <c:v>0.008636244197249621</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.7821051516542443</c:v>
+                  <c:v>0.007821051516542443</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.2843134665997726</c:v>
+                  <c:v>-0.002843134665997726</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.1657570601045766</c:v>
+                  <c:v>0.001657570601045766</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-1.423642194738262</c:v>
+                  <c:v>-0.01423642194738262</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-1.293698794663922</c:v>
+                  <c:v>-0.01293698794663922</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.7206366487803706</c:v>
+                  <c:v>0.007206366487803706</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.228056364638275</c:v>
+                  <c:v>0.01228056364638275</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.117345196290497</c:v>
+                  <c:v>0.00117345196290497</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>-1.494069441449208</c:v>
+                  <c:v>-0.01494069441449208</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>-0.07240817522778942</c:v>
+                  <c:v>-0.0007240817522778942</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>-0.1170950105471635</c:v>
+                  <c:v>-0.001170950105471635</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>-2.148363452546442</c:v>
+                  <c:v>-0.02148363452546442</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.7204317499108992</c:v>
+                  <c:v>0.007204317499108992</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>-0.3736642770188037</c:v>
+                  <c:v>-0.003736642770188037</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>-0.3957628117684742</c:v>
+                  <c:v>-0.003957628117684742</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>-0.53102385419459</c:v>
+                  <c:v>-0.0053102385419459</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.028973734091521</c:v>
+                  <c:v>0.01028973734091521</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.176319001763181</c:v>
+                  <c:v>0.00176319001763181</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.9282787060564734</c:v>
+                  <c:v>0.009282787060564734</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.361511711602326</c:v>
+                  <c:v>0.01361511711602326</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.5793852653360299</c:v>
+                  <c:v>-0.005793852653360299</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-1.14718190418559</c:v>
+                  <c:v>-0.0114718190418559</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-0.3786817460115333</c:v>
+                  <c:v>-0.003786817460115333</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-0.09839430670184335</c:v>
+                  <c:v>-0.0009839430670184335</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.858443780131669</c:v>
+                  <c:v>0.01858443780131669</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1.525503041647169</c:v>
+                  <c:v>-0.01525503041647169</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-0.7339279078409477</c:v>
+                  <c:v>-0.007339279078409477</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1.095448297060297</c:v>
+                  <c:v>0.01095448297060297</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1.108454120876745</c:v>
+                  <c:v>0.01108454120876745</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1.016013535453664</c:v>
+                  <c:v>-0.01016013535453664</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-0.9387565073856186</c:v>
+                  <c:v>-0.009387565073856186</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>1.703743241847167</c:v>
+                  <c:v>0.01703743241847167</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>1.50923279937778</c:v>
+                  <c:v>0.0150923279937778</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-0.8491538788136133</c:v>
+                  <c:v>-0.008491538788136133</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.371362474126391</c:v>
+                  <c:v>0.00371362474126391</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.5277181811890075</c:v>
+                  <c:v>-0.005277181811890075</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.498403215948906</c:v>
+                  <c:v>-0.00498403215948906</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-0.5470422052906376</c:v>
+                  <c:v>-0.005470422052906376</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1.062973785626564</c:v>
+                  <c:v>-0.01062973785626564</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.2408111533586776</c:v>
+                  <c:v>-0.002408111533586776</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.04982729353343318</c:v>
+                  <c:v>-0.0004982729353343318</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.5718364262322639</c:v>
+                  <c:v>-0.005718364262322639</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-0.2429217624392743</c:v>
+                  <c:v>-0.002429217624392743</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-0.1071058004485037</c:v>
+                  <c:v>-0.001071058004485037</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-0.893967790622463</c:v>
+                  <c:v>-0.00893967790622463</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-0.2258830538064971</c:v>
+                  <c:v>-0.002258830538064971</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-0.3208300343098491</c:v>
+                  <c:v>-0.003208300343098491</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-0.5699384138490915</c:v>
+                  <c:v>-0.005699384138490915</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.461056520255943</c:v>
+                  <c:v>0.01461056520255943</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.1641803483623638</c:v>
+                  <c:v>0.001641803483623638</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-2.09693211488251</c:v>
+                  <c:v>-0.0209693211488251</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.4524293488951558</c:v>
+                  <c:v>0.004524293488951558</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.5488618944800683</c:v>
+                  <c:v>0.005488618944800683</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.9358077476563142</c:v>
+                  <c:v>0.009358077476563142</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.807203407772495</c:v>
+                  <c:v>0.01807203407772495</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.4517149857084624</c:v>
+                  <c:v>0.004517149857084624</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.2452457124430429</c:v>
+                  <c:v>-0.002452457124430429</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-0.3197455569747709</c:v>
+                  <c:v>-0.003197455569747709</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.4315654441810812</c:v>
+                  <c:v>0.004315654441810812</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-1.302153206332168</c:v>
+                  <c:v>-0.01302153206332168</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>1.358081348902829</c:v>
+                  <c:v>0.01358081348902829</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.3804811465620173</c:v>
+                  <c:v>0.003804811465620173</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-0.6121653015889184</c:v>
+                  <c:v>-0.006121653015889184</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-0.8040505307069901</c:v>
+                  <c:v>-0.008040505307069901</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.253555430654196</c:v>
+                  <c:v>0.01253555430654196</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-1.775840868597811</c:v>
+                  <c:v>-0.01775840868597811</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.3972253014881355</c:v>
+                  <c:v>0.003972253014881355</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-0.4988593918427764</c:v>
+                  <c:v>-0.004988593918427764</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.343077561458927</c:v>
+                  <c:v>0.01343077561458927</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-0.2500359004248942</c:v>
+                  <c:v>-0.002500359004248942</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.458677933853836</c:v>
+                  <c:v>0.01458677933853836</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-0.7164555023272068</c:v>
+                  <c:v>-0.007164555023272068</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-0.6089155383405376</c:v>
+                  <c:v>-0.006089155383405376</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.6169259604797528</c:v>
+                  <c:v>-0.006169259604797528</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.03615450586038627</c:v>
+                  <c:v>0.0003615450586038627</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1.234014283341633</c:v>
+                  <c:v>-0.01234014283341633</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.6671013693133387</c:v>
+                  <c:v>0.006671013693133387</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-0.1968996646031118</c:v>
+                  <c:v>-0.001968996646031118</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.9262533892453462</c:v>
+                  <c:v>0.009262533892453462</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.3883544006508921</c:v>
+                  <c:v>-0.003883544006508921</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.1276570727897219</c:v>
+                  <c:v>0.001276570727897219</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.992410679869461</c:v>
+                  <c:v>0.01992410679869461</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-0.5053862412217947</c:v>
+                  <c:v>-0.005053862412217947</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.270896179252933</c:v>
+                  <c:v>0.00270896179252933</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.325678858409529</c:v>
+                  <c:v>0.01325678858409529</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.7660762586161773</c:v>
+                  <c:v>0.007660762586161773</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.69837438773337</c:v>
+                  <c:v>0.0169837438773337</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.1226034577728852</c:v>
+                  <c:v>0.001226034577728852</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.802559580337348</c:v>
+                  <c:v>0.01802559580337348</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>2.058429870309686</c:v>
+                  <c:v>0.02058429870309686</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-0.5799921077023318</c:v>
+                  <c:v>-0.005799921077023318</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1.238070205650166</c:v>
+                  <c:v>-0.01238070205650166</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-0.5166537428092255</c:v>
+                  <c:v>-0.005166537428092255</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.7741654097079609</c:v>
+                  <c:v>0.007741654097079609</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.15257352941176</c:v>
+                  <c:v>0.0115257352941176</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1.02702653530915</c:v>
+                  <c:v>-0.0102702653530915</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-0.257682850480434</c:v>
+                  <c:v>-0.00257682850480434</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-0.4803828615287387</c:v>
+                  <c:v>-0.004803828615287387</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.5785229047843954</c:v>
+                  <c:v>0.005785229047843954</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.5919970765576377</c:v>
+                  <c:v>0.005919970765576377</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.170120339390346</c:v>
+                  <c:v>0.01170120339390346</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-0.7658512872721901</c:v>
+                  <c:v>-0.007658512872721901</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.5209101637409619</c:v>
+                  <c:v>0.005209101637409619</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.1921371563700758</c:v>
+                  <c:v>0.001921371563700758</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.7519916610825739</c:v>
+                  <c:v>0.007519916610825739</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.3118173161304805</c:v>
+                  <c:v>0.003118173161304805</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1.010920201429633</c:v>
+                  <c:v>0.01010920201429633</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.8502301517860467</c:v>
+                  <c:v>0.008502301517860467</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.910720927046029</c:v>
+                  <c:v>0.02910720927046029</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.3703449021090988</c:v>
+                  <c:v>0.003703449021090988</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-0.1275422606375143</c:v>
+                  <c:v>-0.001275422606375143</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-2.398690056687602</c:v>
+                  <c:v>-0.02398690056687602</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.466144593531093</c:v>
+                  <c:v>0.01466144593531093</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.5971929001485687</c:v>
+                  <c:v>0.005971929001485687</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-0.8796744816895963</c:v>
+                  <c:v>-0.008796744816895963</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-0.6993948839312369</c:v>
+                  <c:v>-0.006993948839312369</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-0.4024260542125346</c:v>
+                  <c:v>-0.004024260542125346</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.4369039484953818</c:v>
+                  <c:v>0.004369039484953818</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-2.119382459048824</c:v>
+                  <c:v>-0.02119382459048824</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.1386583157259258</c:v>
+                  <c:v>0.001386583157259258</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-0.2474618692309916</c:v>
+                  <c:v>-0.002474618692309916</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-0.1681414266659131</c:v>
+                  <c:v>-0.001681414266659131</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-0.4041538029750158</c:v>
+                  <c:v>-0.004041538029750158</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.636450938670996</c:v>
+                  <c:v>0.00636450938670996</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>4.287804255402716</c:v>
+                  <c:v>0.04287804255402716</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1.016643192953914</c:v>
+                  <c:v>0.01016643192953914</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-0.1544890966349133</c:v>
+                  <c:v>-0.001544890966349133</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-0.8746527402840876</c:v>
+                  <c:v>-0.008746527402840876</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.3576143282170596</c:v>
+                  <c:v>0.003576143282170596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3617,10 +3617,10 @@
         <v>45384</v>
       </c>
       <c r="B2">
-        <v>0.5154639175257714</v>
+        <v>0.005154639175257714</v>
       </c>
       <c r="C2">
-        <v>0.4401921411134824</v>
+        <v>0.004401921411134824</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -3631,10 +3631,10 @@
         <v>45383</v>
       </c>
       <c r="B3">
-        <v>-2.507122507122517</v>
+        <v>-0.02507122507122517</v>
       </c>
       <c r="C3">
-        <v>-0.8711535759449163</v>
+        <v>-0.008711535759449163</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -3645,10 +3645,10 @@
         <v>45379</v>
       </c>
       <c r="B4">
-        <v>-0.7890122735242477</v>
+        <v>-0.007890122735242477</v>
       </c>
       <c r="C4">
-        <v>0.3250033283473286</v>
+        <v>0.003250033283473286</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -3659,10 +3659,10 @@
         <v>45378</v>
       </c>
       <c r="B5">
-        <v>-2.150220913107526</v>
+        <v>-0.02150220913107526</v>
       </c>
       <c r="C5">
-        <v>0.6526725680458423</v>
+        <v>0.006526725680458423</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -3673,10 +3673,10 @@
         <v>45377</v>
       </c>
       <c r="B6">
-        <v>-0.8127633955448355</v>
+        <v>-0.008127633955448355</v>
       </c>
       <c r="C6">
-        <v>-0.0535724133584381</v>
+        <v>-0.000535724133584381</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -3687,10 +3687,10 @@
         <v>45376</v>
       </c>
       <c r="B7">
-        <v>0.9408194233687217</v>
+        <v>0.009408194233687217</v>
       </c>
       <c r="C7">
-        <v>-0.07557448416478652</v>
+        <v>-0.0007557448416478652</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -3701,10 +3701,10 @@
         <v>45373</v>
       </c>
       <c r="B8">
-        <v>-9.201773835920179</v>
+        <v>-0.0920177383592018</v>
       </c>
       <c r="C8">
-        <v>-0.8832778033536437</v>
+        <v>-0.008832778033536437</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -3715,10 +3715,10 @@
         <v>45372</v>
       </c>
       <c r="B9">
-        <v>-0.9768009768009733</v>
+        <v>-0.009768009768009733</v>
       </c>
       <c r="C9">
-        <v>-0.7481122942884832</v>
+        <v>-0.007481122942884832</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -3729,10 +3729,10 @@
         <v>45371</v>
       </c>
       <c r="B10">
-        <v>2.805178791615304</v>
+        <v>0.02805178791615304</v>
       </c>
       <c r="C10">
-        <v>1.251480055516785</v>
+        <v>0.01251480055516785</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
@@ -3743,10 +3743,10 @@
         <v>45370</v>
       </c>
       <c r="B11">
-        <v>-1.709145427286363</v>
+        <v>-0.01709145427286363</v>
       </c>
       <c r="C11">
-        <v>0.4529199552593788</v>
+        <v>0.004529199552593788</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -3757,10 +3757,10 @@
         <v>45369</v>
       </c>
       <c r="B12">
-        <v>0.7626601586333104</v>
+        <v>0.007626601586333104</v>
       </c>
       <c r="C12">
-        <v>0.1672689400514349</v>
+        <v>0.001672689400514349</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -3771,10 +3771,10 @@
         <v>45366</v>
       </c>
       <c r="B13">
-        <v>-0.06055101422949294</v>
+        <v>-0.0006055101422949294</v>
       </c>
       <c r="C13">
-        <v>-0.7424230558383593</v>
+        <v>-0.007424230558383593</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -3785,10 +3785,10 @@
         <v>45365</v>
       </c>
       <c r="B14">
-        <v>-0.272644653135401</v>
+        <v>-0.00272644653135401</v>
       </c>
       <c r="C14">
-        <v>-0.2468634282768001</v>
+        <v>-0.002468634282768001</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -3799,10 +3799,10 @@
         <v>45364</v>
       </c>
       <c r="B15">
-        <v>0.4252733900364625</v>
+        <v>0.004252733900364625</v>
       </c>
       <c r="C15">
-        <v>0.2647491932199042</v>
+        <v>0.002647491932199042</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -3813,10 +3813,10 @@
         <v>45363</v>
       </c>
       <c r="B16">
-        <v>1.209921355111909</v>
+        <v>0.01209921355111909</v>
       </c>
       <c r="C16">
-        <v>1.224192064951946</v>
+        <v>0.01224192064951946</v>
       </c>
       <c r="D16" t="s">
         <v>4</v>
@@ -3827,10 +3827,10 @@
         <v>45362</v>
       </c>
       <c r="B17">
-        <v>-3.167961745367609</v>
+        <v>-0.03167961745367609</v>
       </c>
       <c r="C17">
-        <v>-0.7452526540280613</v>
+        <v>-0.007452526540280613</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -3841,10 +3841,10 @@
         <v>45359</v>
       </c>
       <c r="B18">
-        <v>1.327160493827151</v>
+        <v>0.01327160493827151</v>
       </c>
       <c r="C18">
-        <v>-0.9887798036465667</v>
+        <v>-0.009887798036465667</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -3855,10 +3855,10 @@
         <v>45358</v>
       </c>
       <c r="B19">
-        <v>11.8184587267743</v>
+        <v>0.1181845872677429</v>
       </c>
       <c r="C19">
-        <v>-0.4267204593063845</v>
+        <v>-0.004267204593063845</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -3869,10 +3869,10 @@
         <v>45357</v>
       </c>
       <c r="B20">
-        <v>1.116861890493048</v>
+        <v>0.01116861890493048</v>
       </c>
       <c r="C20">
-        <v>0.6182766319536626</v>
+        <v>0.006182766319536626</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -3883,10 +3883,10 @@
         <v>45356</v>
       </c>
       <c r="B21">
-        <v>-2.155172413793094</v>
+        <v>-0.02155172413793094</v>
       </c>
       <c r="C21">
-        <v>-0.1893393381694031</v>
+        <v>-0.001893393381694031</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -3897,10 +3897,10 @@
         <v>45355</v>
       </c>
       <c r="B22">
-        <v>0.3028634361233573</v>
+        <v>0.003028634361233573</v>
       </c>
       <c r="C22">
-        <v>-0.6494813438612801</v>
+        <v>-0.006494813438612801</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -3911,10 +3911,10 @@
         <v>45352</v>
       </c>
       <c r="B23">
-        <v>0.2470491353280257</v>
+        <v>0.002470491353280257</v>
       </c>
       <c r="C23">
-        <v>0.1240117811192043</v>
+        <v>0.001240117811192043</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -3925,10 +3925,10 @@
         <v>45351</v>
       </c>
       <c r="B24">
-        <v>-0.1095290251916903</v>
+        <v>-0.001095290251916903</v>
       </c>
       <c r="C24">
-        <v>-0.8720371864315624</v>
+        <v>-0.008720371864315624</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -3939,10 +3939,10 @@
         <v>45350</v>
       </c>
       <c r="B25">
-        <v>0.7127192982456343</v>
+        <v>0.007127192982456343</v>
       </c>
       <c r="C25">
-        <v>-1.164865706323226</v>
+        <v>-0.01164865706323226</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -3953,10 +3953,10 @@
         <v>45349</v>
       </c>
       <c r="B26">
-        <v>5.443658138268925</v>
+        <v>0.05443658138268925</v>
       </c>
       <c r="C26">
-        <v>1.604826825297634</v>
+        <v>0.01604826825297634</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -3967,10 +3967,10 @@
         <v>45348</v>
       </c>
       <c r="B27">
-        <v>0.1548786783686085</v>
+        <v>0.001548786783686085</v>
       </c>
       <c r="C27">
-        <v>0.1468099738060058</v>
+        <v>0.001468099738060058</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -3981,10 +3981,10 @@
         <v>45345</v>
       </c>
       <c r="B28">
-        <v>-1.855670103092777</v>
+        <v>-0.01855670103092777</v>
       </c>
       <c r="C28">
-        <v>-0.6311376601838115</v>
+        <v>-0.006311376601838115</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -3995,10 +3995,10 @@
         <v>45344</v>
       </c>
       <c r="B29">
-        <v>0.6827731092437173</v>
+        <v>0.006827731092437173</v>
       </c>
       <c r="C29">
-        <v>0.1607296665436131</v>
+        <v>0.001607296665436131</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -4009,10 +4009,10 @@
         <v>45343</v>
       </c>
       <c r="B30">
-        <v>0.7563901930099037</v>
+        <v>0.007563901930099037</v>
       </c>
       <c r="C30">
-        <v>0.08928846331475171</v>
+        <v>0.0008928846331475171</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -4023,10 +4023,10 @@
         <v>45342</v>
       </c>
       <c r="B31">
-        <v>-0.1294330830960533</v>
+        <v>-0.001294330830960533</v>
       </c>
       <c r="C31">
-        <v>0.6819802225735527</v>
+        <v>0.006819802225735527</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -4037,10 +4037,10 @@
         <v>45341</v>
       </c>
       <c r="B32">
-        <v>1.062726801451541</v>
+        <v>0.01062726801451541</v>
       </c>
       <c r="C32">
-        <v>0.2408215900439714</v>
+        <v>0.002408215900439714</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -4051,10 +4051,10 @@
         <v>45338</v>
       </c>
       <c r="B33">
-        <v>-0.487304437035152</v>
+        <v>-0.00487304437035152</v>
       </c>
       <c r="C33">
-        <v>0.7214171700416161</v>
+        <v>0.007214171700416161</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -4065,10 +4065,10 @@
         <v>45337</v>
       </c>
       <c r="B34">
-        <v>-0.9278350515463885</v>
+        <v>-0.009278350515463885</v>
       </c>
       <c r="C34">
-        <v>0.6188099324505147</v>
+        <v>0.006188099324505147</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -4079,10 +4079,10 @@
         <v>45336</v>
       </c>
       <c r="B35">
-        <v>-3.09573361082206</v>
+        <v>-0.0309573361082206</v>
       </c>
       <c r="C35">
-        <v>-0.7873400715479706</v>
+        <v>-0.007873400715479706</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -4093,10 +4093,10 @@
         <v>45331</v>
       </c>
       <c r="B36">
-        <v>0.7516778523489975</v>
+        <v>0.007516778523489975</v>
       </c>
       <c r="C36">
-        <v>-0.1489662057293506</v>
+        <v>-0.001489662057293506</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -4107,10 +4107,10 @@
         <v>45330</v>
       </c>
       <c r="B37">
-        <v>1.358912869704221</v>
+        <v>0.01358912869704221</v>
       </c>
       <c r="C37">
-        <v>-1.073236219986418</v>
+        <v>-0.01073236219986418</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -4121,10 +4121,10 @@
         <v>45329</v>
       </c>
       <c r="B38">
-        <v>0.8149316508937909</v>
+        <v>0.008149316508937909</v>
       </c>
       <c r="C38">
-        <v>-0.6195558827137737</v>
+        <v>-0.006195558827137737</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -4135,10 +4135,10 @@
         <v>45328</v>
       </c>
       <c r="B39">
-        <v>-1.434159061277718</v>
+        <v>-0.01434159061277718</v>
       </c>
       <c r="C39">
-        <v>2.212503820742517</v>
+        <v>0.02212503820742517</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -4149,10 +4149,10 @@
         <v>45327</v>
       </c>
       <c r="B40">
-        <v>-0.9259259259259078</v>
+        <v>-0.009259259259259078</v>
       </c>
       <c r="C40">
-        <v>0.3231589375854993</v>
+        <v>0.003231589375854993</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -4163,10 +4163,10 @@
         <v>45324</v>
       </c>
       <c r="B41">
-        <v>-0.4272363150867875</v>
+        <v>-0.004272363150867875</v>
       </c>
       <c r="C41">
-        <v>-1.011044434585662</v>
+        <v>-0.01011044434585662</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -4177,10 +4177,10 @@
         <v>45323</v>
       </c>
       <c r="B42">
-        <v>1.314025207830527</v>
+        <v>0.01314025207830527</v>
       </c>
       <c r="C42">
-        <v>0.570636858914142</v>
+        <v>0.00570636858914142</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -4191,10 +4191,10 @@
         <v>45322</v>
       </c>
       <c r="B43">
-        <v>-2.699841185812613</v>
+        <v>-0.02699841185812613</v>
       </c>
       <c r="C43">
-        <v>0.2747209619943236</v>
+        <v>0.002747209619943236</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
@@ -4205,10 +4205,10 @@
         <v>45321</v>
       </c>
       <c r="B44">
-        <v>-0.3264417845484147</v>
+        <v>-0.003264417845484147</v>
       </c>
       <c r="C44">
-        <v>-0.8567893356575373</v>
+        <v>-0.008567893356575373</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -4219,10 +4219,10 @@
         <v>45320</v>
       </c>
       <c r="B45">
-        <v>0.627729257641918</v>
+        <v>0.00627729257641918</v>
       </c>
       <c r="C45">
-        <v>-0.3597819597261354</v>
+        <v>-0.003597819597261354</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -4233,10 +4233,10 @@
         <v>45317</v>
       </c>
       <c r="B46">
-        <v>-1.491727691890421</v>
+        <v>-0.01491727691890421</v>
       </c>
       <c r="C46">
-        <v>0.6226154530346584</v>
+        <v>0.006226154530346584</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
@@ -4247,10 +4247,10 @@
         <v>45316</v>
       </c>
       <c r="B47">
-        <v>-1.707048458149774</v>
+        <v>-0.01707048458149774</v>
       </c>
       <c r="C47">
-        <v>0.2761782562433535</v>
+        <v>0.002761782562433535</v>
       </c>
       <c r="D47" t="s">
         <v>6</v>
@@ -4261,10 +4261,10 @@
         <v>45315</v>
       </c>
       <c r="B48">
-        <v>-3.557422969187685</v>
+        <v>-0.03557422969187685</v>
       </c>
       <c r="C48">
-        <v>-0.3485026858875861</v>
+        <v>-0.003485026858875861</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
@@ -4275,10 +4275,10 @@
         <v>45314</v>
       </c>
       <c r="B49">
-        <v>0.7551553877432449</v>
+        <v>0.007551553877432449</v>
       </c>
       <c r="C49">
-        <v>1.311985592644671</v>
+        <v>0.01311985592644671</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -4289,10 +4289,10 @@
         <v>45313</v>
       </c>
       <c r="B50">
-        <v>-1.239550302680892</v>
+        <v>-0.01239550302680892</v>
       </c>
       <c r="C50">
-        <v>-0.8101162681375174</v>
+        <v>-0.008101162681375174</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -4303,10 +4303,10 @@
         <v>45310</v>
       </c>
       <c r="B51">
-        <v>-0.4378283712784592</v>
+        <v>-0.004378283712784592</v>
       </c>
       <c r="C51">
-        <v>0.2513431147695533</v>
+        <v>0.002513431147695533</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
@@ -4317,10 +4317,10 @@
         <v>45309</v>
       </c>
       <c r="B52">
-        <v>0.5277044854881341</v>
+        <v>0.005277044854881341</v>
       </c>
       <c r="C52">
-        <v>-0.9399022750614661</v>
+        <v>-0.009399022750614661</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -4331,10 +4331,10 @@
         <v>45308</v>
       </c>
       <c r="B53">
-        <v>0.408282298046081</v>
+        <v>0.00408282298046081</v>
       </c>
       <c r="C53">
-        <v>-0.5955419431682873</v>
+        <v>-0.005955419431682873</v>
       </c>
       <c r="D53" t="s">
         <v>6</v>
@@ -4345,10 +4345,10 @@
         <v>45307</v>
       </c>
       <c r="B54">
-        <v>0.5808887598025114</v>
+        <v>0.005808887598025114</v>
       </c>
       <c r="C54">
-        <v>-1.693265714220538</v>
+        <v>-0.01693265714220538</v>
       </c>
       <c r="D54" t="s">
         <v>6</v>
@@ -4359,10 +4359,10 @@
         <v>45306</v>
       </c>
       <c r="B55">
-        <v>1.24169794975455</v>
+        <v>0.0124169794975455</v>
       </c>
       <c r="C55">
-        <v>0.4069075029773828</v>
+        <v>0.004069075029773828</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -4373,10 +4373,10 @@
         <v>45303</v>
       </c>
       <c r="B56">
-        <v>-1.055333713633788</v>
+        <v>-0.01055333713633788</v>
       </c>
       <c r="C56">
-        <v>0.259473857434811</v>
+        <v>0.00259473857434811</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -4387,10 +4387,10 @@
         <v>45302</v>
       </c>
       <c r="B57">
-        <v>-0.2594407610262195</v>
+        <v>-0.002594407610262195</v>
       </c>
       <c r="C57">
-        <v>-0.146742993404203</v>
+        <v>-0.00146742993404203</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -4401,10 +4401,10 @@
         <v>45301</v>
       </c>
       <c r="B58">
-        <v>-0.8381502890173365</v>
+        <v>-0.008381502890173365</v>
       </c>
       <c r="C58">
-        <v>-0.4610223131756519</v>
+        <v>-0.004610223131756519</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -4415,10 +4415,10 @@
         <v>45300</v>
       </c>
       <c r="B59">
-        <v>0.9326726901777826</v>
+        <v>0.009326726901777826</v>
       </c>
       <c r="C59">
-        <v>-0.7400303563472654</v>
+        <v>-0.007400303563472654</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -4429,10 +4429,10 @@
         <v>45299</v>
       </c>
       <c r="B60">
-        <v>0.8663008951775852</v>
+        <v>0.008663008951775852</v>
       </c>
       <c r="C60">
-        <v>0.3060072866091446</v>
+        <v>0.003060072866091446</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -4443,10 +4443,10 @@
         <v>45296</v>
       </c>
       <c r="B61">
-        <v>0.7443458345261833</v>
+        <v>0.007443458345261833</v>
       </c>
       <c r="C61">
-        <v>0.6073491533689968</v>
+        <v>0.006073491533689968</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -4457,10 +4457,10 @@
         <v>45295</v>
       </c>
       <c r="B62">
-        <v>-0.2273373117362865</v>
+        <v>-0.002273373117362865</v>
       </c>
       <c r="C62">
-        <v>-1.210533447761863</v>
+        <v>-0.01210533447761863</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -4471,10 +4471,10 @@
         <v>45294</v>
       </c>
       <c r="B63">
-        <v>0.854457419538579</v>
+        <v>0.00854457419538579</v>
       </c>
       <c r="C63">
-        <v>0.1032427259094026</v>
+        <v>0.001032427259094026</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -4485,10 +4485,10 @@
         <v>45293</v>
       </c>
       <c r="B64">
-        <v>-3.049985879694994</v>
+        <v>-0.03049985879694994</v>
       </c>
       <c r="C64">
-        <v>-1.108916793978465</v>
+        <v>-0.01108916793978465</v>
       </c>
       <c r="D64" t="s">
         <v>6</v>
@@ -4499,10 +4499,10 @@
         <v>45288</v>
       </c>
       <c r="B65">
-        <v>-1.427323041071937</v>
+        <v>-0.01427323041071937</v>
       </c>
       <c r="C65">
-        <v>-0.006706708198578326</v>
+        <v>-6.706708198578326E-05</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -4513,10 +4513,10 @@
         <v>45287</v>
       </c>
       <c r="B66">
-        <v>0.3250591016548343</v>
+        <v>0.003250591016548343</v>
       </c>
       <c r="C66">
-        <v>0.4950087244351531</v>
+        <v>0.004950087244351531</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -4527,10 +4527,10 @@
         <v>45286</v>
       </c>
       <c r="B67">
-        <v>-0.0589101620029564</v>
+        <v>-0.000589101620029564</v>
       </c>
       <c r="C67">
-        <v>0.5875573433368642</v>
+        <v>0.005875573433368642</v>
       </c>
       <c r="D67" t="s">
         <v>7</v>
@@ -4541,10 +4541,10 @@
         <v>45282</v>
       </c>
       <c r="B68">
-        <v>-1.591511936339518</v>
+        <v>-0.01591511936339518</v>
       </c>
       <c r="C68">
-        <v>0.431980148583011</v>
+        <v>0.00431980148583011</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -4555,10 +4555,10 @@
         <v>45281</v>
       </c>
       <c r="B69">
-        <v>-0.95837076969153</v>
+        <v>-0.0095837076969153</v>
       </c>
       <c r="C69">
-        <v>1.053484602917343</v>
+        <v>0.01053484602917343</v>
       </c>
       <c r="D69" t="s">
         <v>7</v>
@@ -4569,10 +4569,10 @@
         <v>45280</v>
       </c>
       <c r="B70">
-        <v>-0.0302388872089443</v>
+        <v>-0.000302388872089443</v>
       </c>
       <c r="C70">
-        <v>-0.7940781639881433</v>
+        <v>-0.007940781639881433</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -4583,10 +4583,10 @@
         <v>45279</v>
       </c>
       <c r="B71">
-        <v>-0.3629764065335883</v>
+        <v>-0.003629764065335883</v>
       </c>
       <c r="C71">
-        <v>0.5851209911202027</v>
+        <v>0.005851209911202027</v>
       </c>
       <c r="D71" t="s">
         <v>7</v>
@@ -4597,10 +4597,10 @@
         <v>45278</v>
       </c>
       <c r="B72">
-        <v>-1.123254401942919</v>
+        <v>-0.01123254401942919</v>
       </c>
       <c r="C72">
-        <v>0.6812752982019665</v>
+        <v>0.006812752982019665</v>
       </c>
       <c r="D72" t="s">
         <v>7</v>
@@ -4611,10 +4611,10 @@
         <v>45275</v>
       </c>
       <c r="B73">
-        <v>-1.228124040528089</v>
+        <v>-0.01228124040528089</v>
       </c>
       <c r="C73">
-        <v>-0.4929609758334452</v>
+        <v>-0.004929609758334452</v>
       </c>
       <c r="D73" t="s">
         <v>7</v>
@@ -4625,10 +4625,10 @@
         <v>45274</v>
       </c>
       <c r="B74">
-        <v>-0.2175940317065583</v>
+        <v>-0.002175940317065583</v>
       </c>
       <c r="C74">
-        <v>1.063607924921794</v>
+        <v>0.01063607924921794</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -4639,10 +4639,10 @@
         <v>45273</v>
       </c>
       <c r="B75">
-        <v>-2.118380062305292</v>
+        <v>-0.02118380062305292</v>
       </c>
       <c r="C75">
-        <v>2.422410860501722</v>
+        <v>0.02422410860501722</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -4653,10 +4653,10 @@
         <v>45272</v>
       </c>
       <c r="B76">
-        <v>-1.432208784213884</v>
+        <v>-0.01432208784213884</v>
       </c>
       <c r="C76">
-        <v>-0.4042043556367947</v>
+        <v>-0.004042043556367947</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -4667,10 +4667,10 @@
         <v>45271</v>
       </c>
       <c r="B77">
-        <v>0.8395221181788814</v>
+        <v>0.008395221181788814</v>
       </c>
       <c r="C77">
-        <v>-0.1400538184336053</v>
+        <v>-0.001400538184336053</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -4681,10 +4681,10 @@
         <v>45268</v>
       </c>
       <c r="B78">
-        <v>0.352225424271535</v>
+        <v>0.00352225424271535</v>
       </c>
       <c r="C78">
-        <v>0.8602491865725037</v>
+        <v>0.008602491865725037</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -4695,10 +4695,10 @@
         <v>45267</v>
       </c>
       <c r="B79">
-        <v>-3.095086151882576</v>
+        <v>-0.03095086151882576</v>
       </c>
       <c r="C79">
-        <v>0.3080646060036774</v>
+        <v>0.003080646060036774</v>
       </c>
       <c r="D79" t="s">
         <v>7</v>
@@ -4709,10 +4709,10 @@
         <v>45266</v>
       </c>
       <c r="B80">
-        <v>0.2634178465590997</v>
+        <v>0.002634178465590997</v>
       </c>
       <c r="C80">
-        <v>-1.008644397689573</v>
+        <v>-0.01008644397689573</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -4723,10 +4723,10 @@
         <v>45265</v>
       </c>
       <c r="B81">
-        <v>3.711001642036127</v>
+        <v>0.03711001642036127</v>
       </c>
       <c r="C81">
-        <v>0.07886248748059099</v>
+        <v>0.0007886248748059099</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
@@ -4737,10 +4737,10 @@
         <v>45264</v>
       </c>
       <c r="B82">
-        <v>0.4749841671944255</v>
+        <v>0.004749841671944255</v>
       </c>
       <c r="C82">
-        <v>-1.014808396368549</v>
+        <v>-0.01014808396368549</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -4751,10 +4751,10 @@
         <v>45261</v>
       </c>
       <c r="B83">
-        <v>2.174598172076903</v>
+        <v>0.02174598172076903</v>
       </c>
       <c r="C83">
-        <v>0.6062938326095058</v>
+        <v>0.006062938326095058</v>
       </c>
       <c r="D83" t="s">
         <v>7</v>
@@ -4765,10 +4765,10 @@
         <v>45260</v>
       </c>
       <c r="B84">
-        <v>0.6785934608266375</v>
+        <v>0.006785934608266375</v>
       </c>
       <c r="C84">
-        <v>0.975408601042016</v>
+        <v>0.00975408601042016</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -4779,10 +4779,10 @@
         <v>45259</v>
       </c>
       <c r="B85">
-        <v>-1.899509803921562</v>
+        <v>-0.01899509803921562</v>
       </c>
       <c r="C85">
-        <v>-0.3453508037111419</v>
+        <v>-0.003453508037111419</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
@@ -4793,10 +4793,10 @@
         <v>45258</v>
       </c>
       <c r="B86">
-        <v>1.030605871330414</v>
+        <v>0.01030605871330414</v>
       </c>
       <c r="C86">
-        <v>0.6802829340483596</v>
+        <v>0.006802829340483596</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -4807,10 +4807,10 @@
         <v>45257</v>
       </c>
       <c r="B87">
-        <v>-1.483771251931998</v>
+        <v>-0.01483771251931998</v>
       </c>
       <c r="C87">
-        <v>0.1123130107852255</v>
+        <v>0.001123130107852255</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
@@ -4821,10 +4821,10 @@
         <v>45254</v>
       </c>
       <c r="B88">
-        <v>0.5647944775651004</v>
+        <v>0.005647944775651004</v>
       </c>
       <c r="C88">
-        <v>-0.8169005182657063</v>
+        <v>-0.008169005182657063</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -4835,10 +4835,10 @@
         <v>45253</v>
       </c>
       <c r="B89">
-        <v>-0.2808112324492851</v>
+        <v>-0.002808112324492851</v>
       </c>
       <c r="C89">
-        <v>0.4292458444083103</v>
+        <v>0.004292458444083103</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
@@ -4849,10 +4849,10 @@
         <v>45252</v>
       </c>
       <c r="B90">
-        <v>-0.03128911138924328</v>
+        <v>-0.0003128911138924328</v>
       </c>
       <c r="C90">
-        <v>0.3407453406259142</v>
+        <v>0.003407453406259142</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>-0.3870097942027861</v>
+        <v>-0.003870097942027861</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
@@ -4877,10 +4877,10 @@
         <v>45250</v>
       </c>
       <c r="B92">
-        <v>0.657276995305156</v>
+        <v>0.00657276995305156</v>
       </c>
       <c r="C92">
-        <v>0.8259903088068343</v>
+        <v>0.008259903088068343</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
@@ -4891,10 +4891,10 @@
         <v>45247</v>
       </c>
       <c r="B93">
-        <v>-0.09328358208953169</v>
+        <v>-0.0009328358208953169</v>
       </c>
       <c r="C93">
-        <v>0.3901232982275848</v>
+        <v>0.003901232982275848</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -4905,10 +4905,10 @@
         <v>45246</v>
       </c>
       <c r="B94">
-        <v>-3.143479614067857</v>
+        <v>-0.03143479614067857</v>
       </c>
       <c r="C94">
-        <v>1.011935651271401</v>
+        <v>0.01011935651271401</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
@@ -4919,10 +4919,10 @@
         <v>45244</v>
       </c>
       <c r="B95">
-        <v>1.767352185089988</v>
+        <v>0.01767352185089988</v>
       </c>
       <c r="C95">
-        <v>2.452316076294281</v>
+        <v>0.02452316076294281</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -4933,10 +4933,10 @@
         <v>45243</v>
       </c>
       <c r="B96">
-        <v>-1.357751815598374</v>
+        <v>-0.01357751815598374</v>
       </c>
       <c r="C96">
-        <v>-0.2155243874133794</v>
+        <v>-0.002155243874133794</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
@@ -4947,10 +4947,10 @@
         <v>45240</v>
       </c>
       <c r="B97">
-        <v>-2.720870678617149</v>
+        <v>-0.02720870678617149</v>
       </c>
       <c r="C97">
-        <v>1.364568278829026</v>
+        <v>0.01364568278829026</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -4961,10 +4961,10 @@
         <v>45239</v>
       </c>
       <c r="B98">
-        <v>0.4606778545574119</v>
+        <v>0.004606778545574119</v>
       </c>
       <c r="C98">
-        <v>-0.07304847227936895</v>
+        <v>-0.0007304847227936895</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
@@ -4975,10 +4975,10 @@
         <v>45238</v>
       </c>
       <c r="B99">
-        <v>-2.030789387487719</v>
+        <v>-0.02030789387487719</v>
       </c>
       <c r="C99">
-        <v>-0.1416976892376853</v>
+        <v>-0.001416976892376853</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -4989,10 +4989,10 @@
         <v>45237</v>
       </c>
       <c r="B100">
-        <v>2.206619859578729</v>
+        <v>0.02206619859578729</v>
       </c>
       <c r="C100">
-        <v>0.6591440411184424</v>
+        <v>0.006591440411184424</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
@@ -5003,10 +5003,10 @@
         <v>45236</v>
       </c>
       <c r="B101">
-        <v>1.668302257114807</v>
+        <v>0.01668302257114807</v>
       </c>
       <c r="C101">
-        <v>0.2767433987813206</v>
+        <v>0.002767433987813206</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
@@ -5017,10 +5017,10 @@
         <v>45233</v>
       </c>
       <c r="B102">
-        <v>0.09652509652509078</v>
+        <v>0.0009652509652509078</v>
       </c>
       <c r="C102">
-        <v>2.700494554683486</v>
+        <v>0.02700494554683486</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -5031,10 +5031,10 @@
         <v>45231</v>
       </c>
       <c r="B103">
-        <v>-1.189328190292516</v>
+        <v>-0.01189328190292516</v>
       </c>
       <c r="C103">
-        <v>1.68723043201584</v>
+        <v>0.0168723043201584</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
@@ -5045,10 +5045,10 @@
         <v>45230</v>
       </c>
       <c r="B104">
-        <v>-1.073519843851656</v>
+        <v>-0.01073519843851656</v>
       </c>
       <c r="C104">
-        <v>0.5438453062240001</v>
+        <v>0.005438453062240001</v>
       </c>
       <c r="D104" t="s">
         <v>9</v>
@@ -5059,10 +5059,10 @@
         <v>45229</v>
       </c>
       <c r="B105">
-        <v>0.9865175928970737</v>
+        <v>0.009865175928970737</v>
       </c>
       <c r="C105">
-        <v>-0.6787230474576522</v>
+        <v>-0.006787230474576522</v>
       </c>
       <c r="D105" t="s">
         <v>9</v>
@@ -5073,10 +5073,10 @@
         <v>45226</v>
       </c>
       <c r="B106">
-        <v>1.009443178117864</v>
+        <v>0.01009443178117864</v>
       </c>
       <c r="C106">
-        <v>-1.285971928173768</v>
+        <v>-0.01285971928173768</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -5087,10 +5087,10 @@
         <v>45225</v>
       </c>
       <c r="B107">
-        <v>0.7414571244358514</v>
+        <v>0.007414571244358514</v>
       </c>
       <c r="C107">
-        <v>1.72560489231588</v>
+        <v>0.0172560489231588</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -5101,10 +5101,10 @@
         <v>45224</v>
       </c>
       <c r="B108">
-        <v>1.024000000000003</v>
+        <v>0.01024000000000003</v>
       </c>
       <c r="C108">
-        <v>-0.8192542325205276</v>
+        <v>-0.008192542325205276</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -5115,10 +5115,10 @@
         <v>45223</v>
       </c>
       <c r="B109">
-        <v>-0.5068102629078197</v>
+        <v>-0.005068102629078197</v>
       </c>
       <c r="C109">
-        <v>0.8662499445848404</v>
+        <v>0.008662499445848404</v>
       </c>
       <c r="D109" t="s">
         <v>9</v>
@@ -5129,10 +5129,10 @@
         <v>45222</v>
       </c>
       <c r="B110">
-        <v>-1.496338745622405</v>
+        <v>-0.01496338745622405</v>
       </c>
       <c r="C110">
-        <v>-0.326985108921396</v>
+        <v>-0.00326985108921396</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
@@ -5143,10 +5143,10 @@
         <v>45219</v>
       </c>
       <c r="B111">
-        <v>7.078215901745311</v>
+        <v>0.07078215901745311</v>
       </c>
       <c r="C111">
-        <v>-0.7447107119048502</v>
+        <v>-0.007447107119048502</v>
       </c>
       <c r="D111" t="s">
         <v>9</v>
@@ -5157,10 +5157,10 @@
         <v>45218</v>
       </c>
       <c r="B112">
-        <v>1.297917295502571</v>
+        <v>0.01297917295502571</v>
       </c>
       <c r="C112">
-        <v>-0.04909696650885476</v>
+        <v>-0.0004909696650885476</v>
       </c>
       <c r="D112" t="s">
         <v>9</v>
@@ -5171,10 +5171,10 @@
         <v>45217</v>
       </c>
       <c r="B113">
-        <v>0.4767580452920139</v>
+        <v>0.004767580452920139</v>
       </c>
       <c r="C113">
-        <v>-1.594367946992448</v>
+        <v>-0.01594367946992448</v>
       </c>
       <c r="D113" t="s">
         <v>9</v>
@@ -5185,10 +5185,10 @@
         <v>45216</v>
       </c>
       <c r="B114">
-        <v>-2.224199288256223</v>
+        <v>-0.02224199288256223</v>
       </c>
       <c r="C114">
-        <v>-0.5371822815658955</v>
+        <v>-0.005371822815658955</v>
       </c>
       <c r="D114" t="s">
         <v>9</v>
@@ -5199,10 +5199,10 @@
         <v>45215</v>
       </c>
       <c r="B115">
-        <v>-2.608431907794961</v>
+        <v>-0.02608431907794961</v>
       </c>
       <c r="C115">
-        <v>0.6738428045683031</v>
+        <v>0.006738428045683031</v>
       </c>
       <c r="D115" t="s">
         <v>9</v>
@@ -5213,10 +5213,10 @@
         <v>45212</v>
       </c>
       <c r="B116">
-        <v>-1.090003114294602</v>
+        <v>-0.01090003114294602</v>
       </c>
       <c r="C116">
-        <v>-1.108064006287857</v>
+        <v>-0.01108064006287857</v>
       </c>
       <c r="D116" t="s">
         <v>9</v>
@@ -5227,10 +5227,10 @@
         <v>45210</v>
       </c>
       <c r="B117">
-        <v>-3.21158690176323</v>
+        <v>-0.0321158690176323</v>
       </c>
       <c r="C117">
-        <v>0.2689807002064448</v>
+        <v>0.002689807002064448</v>
       </c>
       <c r="D117" t="s">
         <v>9</v>
@@ -5241,10 +5241,10 @@
         <v>45209</v>
       </c>
       <c r="B118">
-        <v>0.2602472348731455</v>
+        <v>0.002602472348731455</v>
       </c>
       <c r="C118">
-        <v>1.372920212581197</v>
+        <v>0.01372920212581197</v>
       </c>
       <c r="D118" t="s">
         <v>9</v>
@@ -5255,10 +5255,10 @@
         <v>45208</v>
       </c>
       <c r="B119">
-        <v>-0.7462686567164201</v>
+        <v>-0.007462686567164201</v>
       </c>
       <c r="C119">
-        <v>0.8636244197249621</v>
+        <v>0.008636244197249621</v>
       </c>
       <c r="D119" t="s">
         <v>9</v>
@@ -5269,10 +5269,10 @@
         <v>45205</v>
       </c>
       <c r="B120">
-        <v>-4.118993135011451</v>
+        <v>-0.04118993135011451</v>
       </c>
       <c r="C120">
-        <v>0.7821051516542443</v>
+        <v>0.007821051516542443</v>
       </c>
       <c r="D120" t="s">
         <v>9</v>
@@ -5283,10 +5283,10 @@
         <v>45204</v>
       </c>
       <c r="B121">
-        <v>-2.318445277872483</v>
+        <v>-0.02318445277872483</v>
       </c>
       <c r="C121">
-        <v>-0.2843134665997726</v>
+        <v>-0.002843134665997726</v>
       </c>
       <c r="D121" t="s">
         <v>9</v>
@@ -5297,10 +5297,10 @@
         <v>45203</v>
       </c>
       <c r="B122">
-        <v>-0.3490401396160525</v>
+        <v>-0.003490401396160525</v>
       </c>
       <c r="C122">
-        <v>0.1657570601045766</v>
+        <v>0.001657570601045766</v>
       </c>
       <c r="D122" t="s">
         <v>9</v>
@@ -5311,10 +5311,10 @@
         <v>45202</v>
       </c>
       <c r="B123">
-        <v>4.168126094570912</v>
+        <v>0.04168126094570912</v>
       </c>
       <c r="C123">
-        <v>-1.423642194738262</v>
+        <v>-0.01423642194738262</v>
       </c>
       <c r="D123" t="s">
         <v>9</v>
@@ -5325,10 +5325,10 @@
         <v>45201</v>
       </c>
       <c r="B124">
-        <v>0.4371217215870971</v>
+        <v>0.004371217215870971</v>
       </c>
       <c r="C124">
-        <v>-1.293698794663922</v>
+        <v>-0.01293698794663922</v>
       </c>
       <c r="D124" t="s">
         <v>9</v>
@@ -5339,10 +5339,10 @@
         <v>45198</v>
       </c>
       <c r="B125">
-        <v>1.506528289253439</v>
+        <v>0.01506528289253439</v>
       </c>
       <c r="C125">
-        <v>0.7206366487803706</v>
+        <v>0.007206366487803706</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
@@ -5353,10 +5353,10 @@
         <v>45197</v>
       </c>
       <c r="B126">
-        <v>-0.527704485488123</v>
+        <v>-0.00527704485488123</v>
       </c>
       <c r="C126">
-        <v>1.228056364638275</v>
+        <v>0.01228056364638275</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
@@ -5367,10 +5367,10 @@
         <v>45196</v>
       </c>
       <c r="B127">
-        <v>0.1989389920424411</v>
+        <v>0.001989389920424411</v>
       </c>
       <c r="C127">
-        <v>0.117345196290497</v>
+        <v>0.00117345196290497</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
@@ -5381,10 +5381,10 @@
         <v>45195</v>
       </c>
       <c r="B128">
-        <v>-3.077432164129712</v>
+        <v>-0.03077432164129712</v>
       </c>
       <c r="C128">
-        <v>-1.494069441449208</v>
+        <v>-0.01494069441449208</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -5395,10 +5395,10 @@
         <v>45194</v>
       </c>
       <c r="B129">
-        <v>2.355752816660983</v>
+        <v>0.02355752816660983</v>
       </c>
       <c r="C129">
-        <v>-0.07240817522778942</v>
+        <v>-0.0007240817522778942</v>
       </c>
       <c r="D129" t="s">
         <v>10</v>
@@ -5409,10 +5409,10 @@
         <v>45191</v>
       </c>
       <c r="B130">
-        <v>-0.6337558372248253</v>
+        <v>-0.006337558372248253</v>
       </c>
       <c r="C130">
-        <v>-0.1170950105471635</v>
+        <v>-0.001170950105471635</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -5423,10 +5423,10 @@
         <v>45190</v>
       </c>
       <c r="B131">
-        <v>-0.80563947633433</v>
+        <v>-0.0080563947633433</v>
       </c>
       <c r="C131">
-        <v>-2.148363452546442</v>
+        <v>-0.02148363452546442</v>
       </c>
       <c r="D131" t="s">
         <v>10</v>
@@ -5437,10 +5437,10 @@
         <v>45189</v>
       </c>
       <c r="B132">
-        <v>1.590524534686977</v>
+        <v>0.01590524534686977</v>
       </c>
       <c r="C132">
-        <v>0.7204317499108992</v>
+        <v>0.007204317499108992</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
@@ -5451,10 +5451,10 @@
         <v>45188</v>
       </c>
       <c r="B133">
-        <v>-0.2331778814123942</v>
+        <v>-0.002331778814123942</v>
       </c>
       <c r="C133">
-        <v>-0.3736642770188037</v>
+        <v>-0.003736642770188037</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
@@ -5465,10 +5465,10 @@
         <v>45187</v>
       </c>
       <c r="B134">
-        <v>-0.2337228714524242</v>
+        <v>-0.002337228714524242</v>
       </c>
       <c r="C134">
-        <v>-0.3957628117684742</v>
+        <v>-0.003957628117684742</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
@@ -5479,10 +5479,10 @@
         <v>45184</v>
       </c>
       <c r="B135">
-        <v>-0.7028112449799062</v>
+        <v>-0.007028112449799062</v>
       </c>
       <c r="C135">
-        <v>-0.53102385419459</v>
+        <v>-0.0053102385419459</v>
       </c>
       <c r="D135" t="s">
         <v>10</v>
@@ -5493,10 +5493,10 @@
         <v>45183</v>
       </c>
       <c r="B136">
-        <v>-0.06740815638693887</v>
+        <v>-0.0006740815638693887</v>
       </c>
       <c r="C136">
-        <v>1.028973734091521</v>
+        <v>0.01028973734091521</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
@@ -5507,10 +5507,10 @@
         <v>45182</v>
       </c>
       <c r="B137">
-        <v>-2.495784148397973</v>
+        <v>-0.02495784148397973</v>
       </c>
       <c r="C137">
-        <v>0.176319001763181</v>
+        <v>0.00176319001763181</v>
       </c>
       <c r="D137" t="s">
         <v>10</v>
@@ -5521,10 +5521,10 @@
         <v>45181</v>
       </c>
       <c r="B138">
-        <v>1.521964718090629</v>
+        <v>0.01521964718090629</v>
       </c>
       <c r="C138">
-        <v>0.9282787060564734</v>
+        <v>0.009282787060564734</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
@@ -5535,10 +5535,10 @@
         <v>45180</v>
       </c>
       <c r="B139">
-        <v>-0.4770017035775176</v>
+        <v>-0.004770017035775176</v>
       </c>
       <c r="C139">
-        <v>1.361511711602326</v>
+        <v>0.01361511711602326</v>
       </c>
       <c r="D139" t="s">
         <v>10</v>
@@ -5549,10 +5549,10 @@
         <v>45177</v>
       </c>
       <c r="B140">
-        <v>-12.21855298709097</v>
+        <v>-0.1221855298709097</v>
       </c>
       <c r="C140">
-        <v>-0.5793852653360299</v>
+        <v>-0.005793852653360299</v>
       </c>
       <c r="D140" t="s">
         <v>10</v>
@@ -5563,10 +5563,10 @@
         <v>45175</v>
       </c>
       <c r="B141">
-        <v>0.3419972640218871</v>
+        <v>0.003419972640218871</v>
       </c>
       <c r="C141">
-        <v>-1.14718190418559</v>
+        <v>-0.0114718190418559</v>
       </c>
       <c r="D141" t="s">
         <v>10</v>
@@ -5577,10 +5577,10 @@
         <v>45174</v>
       </c>
       <c r="B142">
-        <v>-0.443081117927735</v>
+        <v>-0.00443081117927735</v>
       </c>
       <c r="C142">
-        <v>-0.3786817460115333</v>
+        <v>-0.003786817460115333</v>
       </c>
       <c r="D142" t="s">
         <v>10</v>
@@ -5591,10 +5591,10 @@
         <v>45173</v>
       </c>
       <c r="B143">
-        <v>-3.252310852447793</v>
+        <v>-0.03252310852447793</v>
       </c>
       <c r="C143">
-        <v>-0.09839430670184335</v>
+        <v>-0.0009839430670184335</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
@@ -5605,10 +5605,10 @@
         <v>45170</v>
       </c>
       <c r="B144">
-        <v>1.061571125265393</v>
+        <v>0.01061571125265393</v>
       </c>
       <c r="C144">
-        <v>1.858443780131669</v>
+        <v>0.01858443780131669</v>
       </c>
       <c r="D144" t="s">
         <v>10</v>
@@ -5619,10 +5619,10 @@
         <v>45169</v>
       </c>
       <c r="B145">
-        <v>-2.100840336134446</v>
+        <v>-0.02100840336134446</v>
       </c>
       <c r="C145">
-        <v>-1.525503041647169</v>
+        <v>-0.01525503041647169</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
@@ -5633,10 +5633,10 @@
         <v>45168</v>
       </c>
       <c r="B146">
-        <v>2.110157367668086</v>
+        <v>0.02110157367668086</v>
       </c>
       <c r="C146">
-        <v>-0.7339279078409477</v>
+        <v>-0.007339279078409477</v>
       </c>
       <c r="D146" t="s">
         <v>11</v>
@@ -5647,10 +5647,10 @@
         <v>45167</v>
       </c>
       <c r="B147">
-        <v>-0.6654991243432606</v>
+        <v>-0.006654991243432606</v>
       </c>
       <c r="C147">
-        <v>1.095448297060297</v>
+        <v>0.01095448297060297</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
@@ -5661,10 +5661,10 @@
         <v>45166</v>
       </c>
       <c r="B148">
-        <v>-0.2115655853314524</v>
+        <v>-0.002115655853314524</v>
       </c>
       <c r="C148">
-        <v>1.108454120876745</v>
+        <v>0.01108454120876745</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -5675,10 +5675,10 @@
         <v>45163</v>
       </c>
       <c r="B149">
-        <v>-1.130742049469968</v>
+        <v>-0.01130742049469968</v>
       </c>
       <c r="C149">
-        <v>-1.016013535453664</v>
+        <v>-0.01016013535453664</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -5689,10 +5689,10 @@
         <v>45162</v>
       </c>
       <c r="B150">
-        <v>0.7147962830593269</v>
+        <v>0.007147962830593269</v>
       </c>
       <c r="C150">
-        <v>-0.9387565073856186</v>
+        <v>-0.009387565073856186</v>
       </c>
       <c r="D150" t="s">
         <v>11</v>
@@ -5703,10 +5703,10 @@
         <v>45161</v>
       </c>
       <c r="B151">
-        <v>0.1419446415897863</v>
+        <v>0.001419446415897863</v>
       </c>
       <c r="C151">
-        <v>1.703743241847167</v>
+        <v>0.01703743241847167</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -5717,10 +5717,10 @@
         <v>45160</v>
       </c>
       <c r="B152">
-        <v>-5.067328136073701</v>
+        <v>-0.05067328136073701</v>
       </c>
       <c r="C152">
-        <v>1.50923279937778</v>
+        <v>0.0150923279937778</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -5731,10 +5731,10 @@
         <v>45159</v>
       </c>
       <c r="B153">
-        <v>-1.493094438223208</v>
+        <v>-0.01493094438223208</v>
       </c>
       <c r="C153">
-        <v>-0.8491538788136133</v>
+        <v>-0.008491538788136133</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -5745,10 +5745,10 @@
         <v>45156</v>
       </c>
       <c r="B154">
-        <v>0.7199696854869098</v>
+        <v>0.007199696854869098</v>
       </c>
       <c r="C154">
-        <v>0.371362474126391</v>
+        <v>0.00371362474126391</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5759,10 +5759,10 @@
         <v>45155</v>
       </c>
       <c r="B155">
-        <v>-0.2633559066967495</v>
+        <v>-0.002633559066967495</v>
       </c>
       <c r="C155">
-        <v>-0.5277181811890075</v>
+        <v>-0.005277181811890075</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -5773,10 +5773,10 @@
         <v>45154</v>
       </c>
       <c r="B156">
-        <v>0.3017729158807825</v>
+        <v>0.003017729158807825</v>
       </c>
       <c r="C156">
-        <v>-0.498403215948906</v>
+        <v>-0.00498403215948906</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -5787,10 +5787,10 @@
         <v>45153</v>
       </c>
       <c r="B157">
-        <v>-2.143663031214749</v>
+        <v>-0.02143663031214749</v>
       </c>
       <c r="C157">
-        <v>-0.5470422052906376</v>
+        <v>-0.005470422052906376</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5801,10 +5801,10 @@
         <v>45152</v>
       </c>
       <c r="B158">
-        <v>-0.6917755572636408</v>
+        <v>-0.006917755572636408</v>
       </c>
       <c r="C158">
-        <v>-1.062973785626564</v>
+        <v>-0.01062973785626564</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5815,10 +5815,10 @@
         <v>45149</v>
       </c>
       <c r="B159">
-        <v>-0.2708978328173406</v>
+        <v>-0.002708978328173406</v>
       </c>
       <c r="C159">
-        <v>-0.2408111533586776</v>
+        <v>-0.002408111533586776</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -5829,10 +5829,10 @@
         <v>45148</v>
       </c>
       <c r="B160">
-        <v>0.2328288707799775</v>
+        <v>0.002328288707799775</v>
       </c>
       <c r="C160">
-        <v>-0.04982729353343318</v>
+        <v>-0.0004982729353343318</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5843,10 +5843,10 @@
         <v>45147</v>
       </c>
       <c r="B161">
-        <v>-0.5807200929152101</v>
+        <v>-0.005807200929152101</v>
       </c>
       <c r="C161">
-        <v>-0.5718364262322639</v>
+        <v>-0.005718364262322639</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -5857,10 +5857,10 @@
         <v>45146</v>
       </c>
       <c r="B162">
-        <v>-0.7788161993769416</v>
+        <v>-0.007788161993769416</v>
       </c>
       <c r="C162">
-        <v>-0.2429217624392743</v>
+        <v>-0.002429217624392743</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -5871,10 +5871,10 @@
         <v>45145</v>
       </c>
       <c r="B163">
-        <v>-0.07849293563578774</v>
+        <v>-0.0007849293563578774</v>
       </c>
       <c r="C163">
-        <v>-0.1071058004485037</v>
+        <v>-0.001071058004485037</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5885,10 +5885,10 @@
         <v>45142</v>
       </c>
       <c r="B164">
-        <v>-0.628436763550666</v>
+        <v>-0.00628436763550666</v>
       </c>
       <c r="C164">
-        <v>-0.893967790622463</v>
+        <v>-0.00893967790622463</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5899,10 +5899,10 @@
         <v>45141</v>
       </c>
       <c r="B165">
-        <v>3.04347826086957</v>
+        <v>0.0304347826086957</v>
       </c>
       <c r="C165">
-        <v>-0.2258830538064971</v>
+        <v>-0.002258830538064971</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -5913,10 +5913,10 @@
         <v>45140</v>
       </c>
       <c r="B166">
-        <v>-1.265822784810133</v>
+        <v>-0.01265822784810133</v>
       </c>
       <c r="C166">
-        <v>-0.3208300343098491</v>
+        <v>-0.003208300343098491</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5927,10 +5927,10 @@
         <v>45139</v>
       </c>
       <c r="B167">
-        <v>0.2331002331002363</v>
+        <v>0.002331002331002363</v>
       </c>
       <c r="C167">
-        <v>-0.5699384138490915</v>
+        <v>-0.005699384138490915</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5941,10 +5941,10 @@
         <v>45138</v>
       </c>
       <c r="B168">
-        <v>1.666666666666661</v>
+        <v>0.01666666666666661</v>
       </c>
       <c r="C168">
-        <v>1.461056520255943</v>
+        <v>0.01461056520255943</v>
       </c>
       <c r="D168" t="s">
         <v>12</v>
@@ -5955,10 +5955,10 @@
         <v>45135</v>
       </c>
       <c r="B169">
-        <v>-4.346168509340453</v>
+        <v>-0.04346168509340453</v>
       </c>
       <c r="C169">
-        <v>0.1641803483623638</v>
+        <v>0.001641803483623638</v>
       </c>
       <c r="D169" t="s">
         <v>12</v>
@@ -5969,10 +5969,10 @@
         <v>45134</v>
       </c>
       <c r="B170">
-        <v>-1.235552012754082</v>
+        <v>-0.01235552012754082</v>
       </c>
       <c r="C170">
-        <v>-2.09693211488251</v>
+        <v>-0.0209693211488251</v>
       </c>
       <c r="D170" t="s">
         <v>12</v>
@@ -5983,10 +5983,10 @@
         <v>45133</v>
       </c>
       <c r="B171">
-        <v>5.488297013720733</v>
+        <v>0.05488297013720733</v>
       </c>
       <c r="C171">
-        <v>0.4524293488951558</v>
+        <v>0.004524293488951558</v>
       </c>
       <c r="D171" t="s">
         <v>12</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="C172">
-        <v>0.5488618944800683</v>
+        <v>0.005488618944800683</v>
       </c>
       <c r="D172" t="s">
         <v>12</v>
@@ -6011,10 +6011,10 @@
         <v>45131</v>
       </c>
       <c r="B173">
-        <v>-2.257077276205044</v>
+        <v>-0.02257077276205044</v>
       </c>
       <c r="C173">
-        <v>0.9358077476563142</v>
+        <v>0.009358077476563142</v>
       </c>
       <c r="D173" t="s">
         <v>12</v>
@@ -6025,10 +6025,10 @@
         <v>45128</v>
       </c>
       <c r="B174">
-        <v>-2.035225048923672</v>
+        <v>-0.02035225048923672</v>
       </c>
       <c r="C174">
-        <v>1.807203407772495</v>
+        <v>0.01807203407772495</v>
       </c>
       <c r="D174" t="s">
         <v>12</v>
@@ -6039,10 +6039,10 @@
         <v>45127</v>
       </c>
       <c r="B175">
-        <v>-1.877746703955263</v>
+        <v>-0.01877746703955263</v>
       </c>
       <c r="C175">
-        <v>0.4517149857084624</v>
+        <v>0.004517149857084624</v>
       </c>
       <c r="D175" t="s">
         <v>12</v>
@@ -6053,10 +6053,10 @@
         <v>45126</v>
       </c>
       <c r="B176">
-        <v>-0.08143322475570036</v>
+        <v>-0.0008143322475570036</v>
       </c>
       <c r="C176">
-        <v>-0.2452457124430429</v>
+        <v>-0.002452457124430429</v>
       </c>
       <c r="D176" t="s">
         <v>12</v>
@@ -6067,10 +6067,10 @@
         <v>45125</v>
       </c>
       <c r="B177">
-        <v>-0.9372453137734382</v>
+        <v>-0.009372453137734382</v>
       </c>
       <c r="C177">
-        <v>-0.3197455569747709</v>
+        <v>-0.003197455569747709</v>
       </c>
       <c r="D177" t="s">
         <v>12</v>
@@ -6081,10 +6081,10 @@
         <v>45124</v>
       </c>
       <c r="B178">
-        <v>0.5347593582887722</v>
+        <v>0.005347593582887722</v>
       </c>
       <c r="C178">
-        <v>0.4315654441810812</v>
+        <v>0.004315654441810812</v>
       </c>
       <c r="D178" t="s">
         <v>12</v>
@@ -6095,10 +6095,10 @@
         <v>45121</v>
       </c>
       <c r="B179">
-        <v>0.2045826513911608</v>
+        <v>0.002045826513911608</v>
       </c>
       <c r="C179">
-        <v>-1.302153206332168</v>
+        <v>-0.01302153206332168</v>
       </c>
       <c r="D179" t="s">
         <v>12</v>
@@ -6109,10 +6109,10 @@
         <v>45120</v>
       </c>
       <c r="B180">
-        <v>2.000816659861182</v>
+        <v>0.02000816659861182</v>
       </c>
       <c r="C180">
-        <v>1.358081348902829</v>
+        <v>0.01358081348902829</v>
       </c>
       <c r="D180" t="s">
         <v>12</v>
@@ -6123,10 +6123,10 @@
         <v>45119</v>
       </c>
       <c r="B181">
-        <v>-1.521216973578854</v>
+        <v>-0.01521216973578854</v>
       </c>
       <c r="C181">
-        <v>0.3804811465620173</v>
+        <v>0.003804811465620173</v>
       </c>
       <c r="D181" t="s">
         <v>12</v>
@@ -6137,10 +6137,10 @@
         <v>45118</v>
       </c>
       <c r="B182">
-        <v>-0.08130081300814496</v>
+        <v>-0.0008130081300814496</v>
       </c>
       <c r="C182">
-        <v>-0.6121653015889184</v>
+        <v>-0.006121653015889184</v>
       </c>
       <c r="D182" t="s">
         <v>12</v>
@@ -6151,10 +6151,10 @@
         <v>45117</v>
       </c>
       <c r="B183">
-        <v>1.38323840520751</v>
+        <v>0.0138323840520751</v>
       </c>
       <c r="C183">
-        <v>-0.8040505307069901</v>
+        <v>-0.008040505307069901</v>
       </c>
       <c r="D183" t="s">
         <v>12</v>
@@ -6165,10 +6165,10 @@
         <v>45114</v>
       </c>
       <c r="B184">
-        <v>-0.2006420545746401</v>
+        <v>-0.002006420545746401</v>
       </c>
       <c r="C184">
-        <v>1.253555430654196</v>
+        <v>0.01253555430654196</v>
       </c>
       <c r="D184" t="s">
         <v>12</v>
@@ -6179,10 +6179,10 @@
         <v>45113</v>
       </c>
       <c r="B185">
-        <v>0.5227181342983389</v>
+        <v>0.005227181342983389</v>
       </c>
       <c r="C185">
-        <v>-1.775840868597811</v>
+        <v>-0.01775840868597811</v>
       </c>
       <c r="D185" t="s">
         <v>12</v>
@@ -6193,10 +6193,10 @@
         <v>45112</v>
       </c>
       <c r="B186">
-        <v>1.560000000000006</v>
+        <v>0.01560000000000006</v>
       </c>
       <c r="C186">
-        <v>0.3972253014881355</v>
+        <v>0.003972253014881355</v>
       </c>
       <c r="D186" t="s">
         <v>12</v>
@@ -6207,10 +6207,10 @@
         <v>45111</v>
       </c>
       <c r="B187">
-        <v>0.1181567546278073</v>
+        <v>0.001181567546278073</v>
       </c>
       <c r="C187">
-        <v>-0.4988593918427764</v>
+        <v>-0.004988593918427764</v>
       </c>
       <c r="D187" t="s">
         <v>12</v>
@@ -6221,10 +6221,10 @@
         <v>45110</v>
       </c>
       <c r="B188">
-        <v>-0.2360346184107076</v>
+        <v>-0.002360346184107076</v>
       </c>
       <c r="C188">
-        <v>1.343077561458927</v>
+        <v>0.01343077561458927</v>
       </c>
       <c r="D188" t="s">
         <v>12</v>
@@ -6235,10 +6235,10 @@
         <v>45107</v>
       </c>
       <c r="B189">
-        <v>-1.813880126182965</v>
+        <v>-0.01813880126182965</v>
       </c>
       <c r="C189">
-        <v>-0.2500359004248942</v>
+        <v>-0.002500359004248942</v>
       </c>
       <c r="D189" t="s">
         <v>13</v>
@@ -6249,10 +6249,10 @@
         <v>45106</v>
       </c>
       <c r="B190">
-        <v>5.060240963855422</v>
+        <v>0.05060240963855422</v>
       </c>
       <c r="C190">
-        <v>1.458677933853836</v>
+        <v>0.01458677933853836</v>
       </c>
       <c r="D190" t="s">
         <v>13</v>
@@ -6263,10 +6263,10 @@
         <v>45105</v>
       </c>
       <c r="B191">
-        <v>-0.420489296636084</v>
+        <v>-0.00420489296636084</v>
       </c>
       <c r="C191">
-        <v>-0.7164555023272068</v>
+        <v>-0.007164555023272068</v>
       </c>
       <c r="D191" t="s">
         <v>13</v>
@@ -6277,10 +6277,10 @@
         <v>45104</v>
       </c>
       <c r="B192">
-        <v>-0.9596928982725572</v>
+        <v>-0.009596928982725572</v>
       </c>
       <c r="C192">
-        <v>-0.6089155383405376</v>
+        <v>-0.006089155383405376</v>
       </c>
       <c r="D192" t="s">
         <v>13</v>
@@ -6291,10 +6291,10 @@
         <v>45103</v>
       </c>
       <c r="B193">
-        <v>0.7751937984496138</v>
+        <v>0.007751937984496138</v>
       </c>
       <c r="C193">
-        <v>-0.6169259604797528</v>
+        <v>-0.006169259604797528</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
@@ -6305,10 +6305,10 @@
         <v>45100</v>
       </c>
       <c r="B194">
-        <v>-2.192307692307693</v>
+        <v>-0.02192307692307693</v>
       </c>
       <c r="C194">
-        <v>0.03615450586038627</v>
+        <v>0.0003615450586038627</v>
       </c>
       <c r="D194" t="s">
         <v>13</v>
@@ -6319,10 +6319,10 @@
         <v>45099</v>
       </c>
       <c r="B195">
-        <v>4.28627605190719</v>
+        <v>0.0428627605190719</v>
       </c>
       <c r="C195">
-        <v>-1.234014283341633</v>
+        <v>-0.01234014283341633</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
@@ -6333,10 +6333,10 @@
         <v>45098</v>
       </c>
       <c r="B196">
-        <v>1.282051282051277</v>
+        <v>0.01282051282051277</v>
       </c>
       <c r="C196">
-        <v>0.6671013693133387</v>
+        <v>0.006671013693133387</v>
       </c>
       <c r="D196" t="s">
         <v>13</v>
@@ -6347,10 +6347,10 @@
         <v>45097</v>
       </c>
       <c r="B197">
-        <v>-4.020848845867453</v>
+        <v>-0.04020848845867453</v>
       </c>
       <c r="C197">
-        <v>-0.1968996646031118</v>
+        <v>-0.001968996646031118</v>
       </c>
       <c r="D197" t="s">
         <v>13</v>
@@ -6361,10 +6361,10 @@
         <v>45096</v>
       </c>
       <c r="B198">
-        <v>-0.5042668735453892</v>
+        <v>-0.005042668735453892</v>
       </c>
       <c r="C198">
-        <v>0.9262533892453462</v>
+        <v>0.009262533892453462</v>
       </c>
       <c r="D198" t="s">
         <v>13</v>
@@ -6375,10 +6375,10 @@
         <v>45093</v>
       </c>
       <c r="B199">
-        <v>-2.573099415204683</v>
+        <v>-0.02573099415204683</v>
       </c>
       <c r="C199">
-        <v>-0.3883544006508921</v>
+        <v>-0.003883544006508921</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
@@ -6389,10 +6389,10 @@
         <v>45092</v>
       </c>
       <c r="B200">
-        <v>-0.8403361344537674</v>
+        <v>-0.008403361344537674</v>
       </c>
       <c r="C200">
-        <v>0.1276570727897219</v>
+        <v>0.001276570727897219</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
@@ -6403,10 +6403,10 @@
         <v>45091</v>
       </c>
       <c r="B201">
-        <v>2.42130750605325</v>
+        <v>0.0242130750605325</v>
       </c>
       <c r="C201">
-        <v>1.992410679869461</v>
+        <v>0.01992410679869461</v>
       </c>
       <c r="D201" t="s">
         <v>13</v>
@@ -6417,10 +6417,10 @@
         <v>45090</v>
       </c>
       <c r="B202">
-        <v>-4.137115839243499</v>
+        <v>-0.04137115839243499</v>
       </c>
       <c r="C202">
-        <v>-0.5053862412217947</v>
+        <v>-0.005053862412217947</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
@@ -6431,10 +6431,10 @@
         <v>45089</v>
       </c>
       <c r="B203">
-        <v>0.2055076037813519</v>
+        <v>0.002055076037813519</v>
       </c>
       <c r="C203">
-        <v>0.270896179252933</v>
+        <v>0.00270896179252933</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
@@ -6445,10 +6445,10 @@
         <v>45086</v>
       </c>
       <c r="B204">
-        <v>-1.722723543888427</v>
+        <v>-0.01722723543888427</v>
       </c>
       <c r="C204">
-        <v>1.325678858409529</v>
+        <v>0.01325678858409529</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
@@ -6459,10 +6459,10 @@
         <v>45084</v>
       </c>
       <c r="B205">
-        <v>-4.632721202003331</v>
+        <v>-0.04632721202003331</v>
       </c>
       <c r="C205">
-        <v>0.7660762586161773</v>
+        <v>0.007660762586161773</v>
       </c>
       <c r="D205" t="s">
         <v>13</v>
@@ -6473,10 +6473,10 @@
         <v>45083</v>
       </c>
       <c r="B206">
-        <v>-2.844638949671785</v>
+        <v>-0.02844638949671785</v>
       </c>
       <c r="C206">
-        <v>1.69837438773337</v>
+        <v>0.0169837438773337</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
@@ -6487,10 +6487,10 @@
         <v>45082</v>
       </c>
       <c r="B207">
-        <v>-2.072072072072073</v>
+        <v>-0.02072072072072073</v>
       </c>
       <c r="C207">
-        <v>0.1226034577728852</v>
+        <v>0.001226034577728852</v>
       </c>
       <c r="D207" t="s">
         <v>13</v>
@@ -6501,10 +6501,10 @@
         <v>45079</v>
       </c>
       <c r="B208">
-        <v>-1.057957681692723</v>
+        <v>-0.01057957681692723</v>
       </c>
       <c r="C208">
-        <v>1.802559580337348</v>
+        <v>0.01802559580337348</v>
       </c>
       <c r="D208" t="s">
         <v>13</v>
@@ -6515,10 +6515,10 @@
         <v>45078</v>
       </c>
       <c r="B209">
-        <v>-0.7903300790330192</v>
+        <v>-0.007903300790330192</v>
       </c>
       <c r="C209">
-        <v>2.058429870309686</v>
+        <v>0.02058429870309686</v>
       </c>
       <c r="D209" t="s">
         <v>13</v>
@@ -6529,10 +6529,10 @@
         <v>45077</v>
       </c>
       <c r="B210">
-        <v>-3.13964386129334</v>
+        <v>-0.0313964386129334</v>
       </c>
       <c r="C210">
-        <v>-0.5799921077023318</v>
+        <v>-0.005799921077023318</v>
       </c>
       <c r="D210" t="s">
         <v>14</v>
@@ -6543,10 +6543,10 @@
         <v>45076</v>
       </c>
       <c r="B211">
-        <v>1.015965166908539</v>
+        <v>0.01015965166908539</v>
       </c>
       <c r="C211">
-        <v>-1.238070205650166</v>
+        <v>-0.01238070205650166</v>
       </c>
       <c r="D211" t="s">
         <v>14</v>
@@ -6557,10 +6557,10 @@
         <v>45075</v>
       </c>
       <c r="B212">
-        <v>1.149425287356332</v>
+        <v>0.01149425287356332</v>
       </c>
       <c r="C212">
-        <v>-0.5166537428092255</v>
+        <v>-0.005166537428092255</v>
       </c>
       <c r="D212" t="s">
         <v>14</v>
@@ -6571,10 +6571,10 @@
         <v>45072</v>
       </c>
       <c r="B213">
-        <v>0.4261363636363535</v>
+        <v>0.004261363636363535</v>
       </c>
       <c r="C213">
-        <v>0.7741654097079609</v>
+        <v>0.007741654097079609</v>
       </c>
       <c r="D213" t="s">
         <v>14</v>
@@ -6585,10 +6585,10 @@
         <v>45071</v>
       </c>
       <c r="B214">
-        <v>-1.320132013201325</v>
+        <v>-0.01320132013201325</v>
       </c>
       <c r="C214">
-        <v>1.15257352941176</v>
+        <v>0.0115257352941176</v>
       </c>
       <c r="D214" t="s">
         <v>14</v>
@@ -6599,10 +6599,10 @@
         <v>45070</v>
       </c>
       <c r="B215">
-        <v>0.7644529383659782</v>
+        <v>0.007644529383659782</v>
       </c>
       <c r="C215">
-        <v>-1.02702653530915</v>
+        <v>-0.0102702653530915</v>
       </c>
       <c r="D215" t="s">
         <v>14</v>
@@ -6613,10 +6613,10 @@
         <v>45069</v>
       </c>
       <c r="B216">
-        <v>-1.517306780464678</v>
+        <v>-0.01517306780464678</v>
       </c>
       <c r="C216">
-        <v>-0.257682850480434</v>
+        <v>-0.00257682850480434</v>
       </c>
       <c r="D216" t="s">
         <v>14</v>
@@ -6627,10 +6627,10 @@
         <v>45068</v>
       </c>
       <c r="B217">
-        <v>-2.407318247472312</v>
+        <v>-0.02407318247472312</v>
       </c>
       <c r="C217">
-        <v>-0.4803828615287387</v>
+        <v>-0.004803828615287387</v>
       </c>
       <c r="D217" t="s">
         <v>14</v>
@@ -6641,10 +6641,10 @@
         <v>45065</v>
       </c>
       <c r="B218">
-        <v>1.184015786877168</v>
+        <v>0.01184015786877168</v>
       </c>
       <c r="C218">
-        <v>0.5785229047843954</v>
+        <v>0.005785229047843954</v>
       </c>
       <c r="D218" t="s">
         <v>14</v>
@@ -6655,10 +6655,10 @@
         <v>45064</v>
       </c>
       <c r="B219">
-        <v>-0.3900536323744652</v>
+        <v>-0.003900536323744652</v>
       </c>
       <c r="C219">
-        <v>0.5919970765576377</v>
+        <v>0.005919970765576377</v>
       </c>
       <c r="D219" t="s">
         <v>14</v>
@@ -6669,10 +6669,10 @@
         <v>45063</v>
       </c>
       <c r="B220">
-        <v>-0.5873715124816492</v>
+        <v>-0.005873715124816492</v>
       </c>
       <c r="C220">
-        <v>1.170120339390346</v>
+        <v>0.01170120339390346</v>
       </c>
       <c r="D220" t="s">
         <v>14</v>
@@ -6683,10 +6683,10 @@
         <v>45062</v>
       </c>
       <c r="B221">
-        <v>2.461841457410152</v>
+        <v>0.02461841457410152</v>
       </c>
       <c r="C221">
-        <v>-0.7658512872721901</v>
+        <v>-0.007658512872721901</v>
       </c>
       <c r="D221" t="s">
         <v>14</v>
@@ -6697,10 +6697,10 @@
         <v>45061</v>
       </c>
       <c r="B222">
-        <v>-2.402691013935609</v>
+        <v>-0.02402691013935609</v>
       </c>
       <c r="C222">
-        <v>0.5209101637409619</v>
+        <v>0.005209101637409619</v>
       </c>
       <c r="D222" t="s">
         <v>14</v>
@@ -6711,10 +6711,10 @@
         <v>45058</v>
       </c>
       <c r="B223">
-        <v>2.264894140817342</v>
+        <v>0.02264894140817342</v>
       </c>
       <c r="C223">
-        <v>0.1921371563700758</v>
+        <v>0.001921371563700758</v>
       </c>
       <c r="D223" t="s">
         <v>14</v>
@@ -6725,10 +6725,10 @@
         <v>45057</v>
       </c>
       <c r="B224">
-        <v>-3.129513721714006</v>
+        <v>-0.03129513721714006</v>
       </c>
       <c r="C224">
-        <v>0.7519916610825739</v>
+        <v>0.007519916610825739</v>
       </c>
       <c r="D224" t="s">
         <v>14</v>
@@ -6739,10 +6739,10 @@
         <v>45056</v>
       </c>
       <c r="B225">
-        <v>-3.528827037773363</v>
+        <v>-0.03528827037773363</v>
       </c>
       <c r="C225">
-        <v>0.3118173161304805</v>
+        <v>0.003118173161304805</v>
       </c>
       <c r="D225" t="s">
         <v>14</v>
@@ -6753,10 +6753,10 @@
         <v>45055</v>
       </c>
       <c r="B226">
-        <v>0.2575991756826435</v>
+        <v>0.002575991756826435</v>
       </c>
       <c r="C226">
-        <v>1.010920201429633</v>
+        <v>0.01010920201429633</v>
       </c>
       <c r="D226" t="s">
         <v>14</v>
@@ -6767,10 +6767,10 @@
         <v>45054</v>
       </c>
       <c r="B227">
-        <v>-0.3083247687564405</v>
+        <v>-0.003083247687564405</v>
       </c>
       <c r="C227">
-        <v>0.8502301517860467</v>
+        <v>0.008502301517860467</v>
       </c>
       <c r="D227" t="s">
         <v>14</v>
@@ -6781,10 +6781,10 @@
         <v>45051</v>
       </c>
       <c r="B228">
-        <v>-21.17061021170611</v>
+        <v>-0.2117061021170611</v>
       </c>
       <c r="C228">
-        <v>2.910720927046029</v>
+        <v>0.02910720927046029</v>
       </c>
       <c r="D228" t="s">
         <v>14</v>
@@ -6795,10 +6795,10 @@
         <v>45050</v>
       </c>
       <c r="B229">
-        <v>-4.05476566614007</v>
+        <v>-0.0405476566614007</v>
       </c>
       <c r="C229">
-        <v>0.3703449021090988</v>
+        <v>0.003703449021090988</v>
       </c>
       <c r="D229" t="s">
         <v>14</v>
@@ -6809,10 +6809,10 @@
         <v>45049</v>
       </c>
       <c r="B230">
-        <v>-1.591657519209655</v>
+        <v>-0.01591657519209655</v>
       </c>
       <c r="C230">
-        <v>-0.1275422606375143</v>
+        <v>-0.001275422606375143</v>
       </c>
       <c r="D230" t="s">
         <v>14</v>
@@ -6823,10 +6823,10 @@
         <v>45048</v>
       </c>
       <c r="B231">
-        <v>0.3904071388733943</v>
+        <v>0.003904071388733943</v>
       </c>
       <c r="C231">
-        <v>-2.398690056687602</v>
+        <v>-0.02398690056687602</v>
       </c>
       <c r="D231" t="s">
         <v>14</v>
@@ -6837,10 +6837,10 @@
         <v>45044</v>
       </c>
       <c r="B232">
-        <v>4.222222222222238</v>
+        <v>0.04222222222222238</v>
       </c>
       <c r="C232">
-        <v>1.466144593531093</v>
+        <v>0.01466144593531093</v>
       </c>
       <c r="D232" t="s">
         <v>15</v>
@@ -6851,10 +6851,10 @@
         <v>45043</v>
       </c>
       <c r="B233">
-        <v>-1.49253731343284</v>
+        <v>-0.0149253731343284</v>
       </c>
       <c r="C233">
-        <v>0.5971929001485687</v>
+        <v>0.005971929001485687</v>
       </c>
       <c r="D233" t="s">
         <v>15</v>
@@ -6865,10 +6865,10 @@
         <v>45042</v>
       </c>
       <c r="B234">
-        <v>2.489177489177496</v>
+        <v>0.02489177489177496</v>
       </c>
       <c r="C234">
-        <v>-0.8796744816895963</v>
+        <v>-0.008796744816895963</v>
       </c>
       <c r="D234" t="s">
         <v>15</v>
@@ -6879,10 +6879,10 @@
         <v>45041</v>
       </c>
       <c r="B235">
-        <v>1.26715945089757</v>
+        <v>0.0126715945089757</v>
       </c>
       <c r="C235">
-        <v>-0.6993948839312369</v>
+        <v>-0.006993948839312369</v>
       </c>
       <c r="D235" t="s">
         <v>15</v>
@@ -6893,10 +6893,10 @@
         <v>45040</v>
       </c>
       <c r="B236">
-        <v>0.4171011470281538</v>
+        <v>0.004171011470281538</v>
       </c>
       <c r="C236">
-        <v>-0.4024260542125346</v>
+        <v>-0.004024260542125346</v>
       </c>
       <c r="D236" t="s">
         <v>15</v>
@@ -6907,10 +6907,10 @@
         <v>45036</v>
       </c>
       <c r="B237">
-        <v>-1.869158878504684</v>
+        <v>-0.01869158878504684</v>
       </c>
       <c r="C237">
-        <v>0.4369039484953818</v>
+        <v>0.004369039484953818</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
@@ -6921,10 +6921,10 @@
         <v>45035</v>
       </c>
       <c r="B238">
-        <v>-0.6878306878306817</v>
+        <v>-0.006878306878306817</v>
       </c>
       <c r="C238">
-        <v>-2.119382459048824</v>
+        <v>-0.02119382459048824</v>
       </c>
       <c r="D238" t="s">
         <v>15</v>
@@ -6935,10 +6935,10 @@
         <v>45034</v>
       </c>
       <c r="B239">
-        <v>3.356419818859879</v>
+        <v>0.03356419818859879</v>
       </c>
       <c r="C239">
-        <v>0.1386583157259258</v>
+        <v>0.001386583157259258</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -6949,10 +6949,10 @@
         <v>45033</v>
       </c>
       <c r="B240">
-        <v>-2.52577319587628</v>
+        <v>-0.0252577319587628</v>
       </c>
       <c r="C240">
-        <v>-0.2474618692309916</v>
+        <v>-0.002474618692309916</v>
       </c>
       <c r="D240" t="s">
         <v>15</v>
@@ -6963,10 +6963,10 @@
         <v>45030</v>
       </c>
       <c r="B241">
-        <v>-1.53358011634056</v>
+        <v>-0.0153358011634056</v>
       </c>
       <c r="C241">
-        <v>-0.1681414266659131</v>
+        <v>-0.001681414266659131</v>
       </c>
       <c r="D241" t="s">
         <v>15</v>
@@ -6977,10 +6977,10 @@
         <v>45029</v>
       </c>
       <c r="B242">
-        <v>-1.020408163265318</v>
+        <v>-0.01020408163265318</v>
       </c>
       <c r="C242">
-        <v>-0.4041538029750158</v>
+        <v>-0.004041538029750158</v>
       </c>
       <c r="D242" t="s">
         <v>15</v>
@@ -6991,10 +6991,10 @@
         <v>45028</v>
       </c>
       <c r="B243">
-        <v>-0.7053716766142082</v>
+        <v>-0.007053716766142082</v>
       </c>
       <c r="C243">
-        <v>0.636450938670996</v>
+        <v>0.00636450938670996</v>
       </c>
       <c r="D243" t="s">
         <v>15</v>
@@ -7005,10 +7005,10 @@
         <v>45027</v>
       </c>
       <c r="B244">
-        <v>-0.7103825136612008</v>
+        <v>-0.007103825136612008</v>
       </c>
       <c r="C244">
-        <v>4.287804255402716</v>
+        <v>0.04287804255402716</v>
       </c>
       <c r="D244" t="s">
         <v>15</v>
@@ -7019,10 +7019,10 @@
         <v>45026</v>
       </c>
       <c r="B245">
-        <v>-4.45789763346176</v>
+        <v>-0.0445789763346176</v>
       </c>
       <c r="C245">
-        <v>1.016643192953914</v>
+        <v>0.01016643192953914</v>
       </c>
       <c r="D245" t="s">
         <v>15</v>
@@ -7033,10 +7033,10 @@
         <v>45022</v>
       </c>
       <c r="B246">
-        <v>-2.13133640552996</v>
+        <v>-0.0213133640552996</v>
       </c>
       <c r="C246">
-        <v>-0.1544890966349133</v>
+        <v>-0.001544890966349133</v>
       </c>
       <c r="D246" t="s">
         <v>15</v>
@@ -7047,10 +7047,10 @@
         <v>45021</v>
       </c>
       <c r="B247">
-        <v>1.471453796350786</v>
+        <v>0.01471453796350786</v>
       </c>
       <c r="C247">
-        <v>-0.8746527402840876</v>
+        <v>-0.008746527402840876</v>
       </c>
       <c r="D247" t="s">
         <v>15</v>
@@ -7061,10 +7061,10 @@
         <v>45020</v>
       </c>
       <c r="B248">
-        <v>-0.2900232018561266</v>
+        <v>-0.002900232018561266</v>
       </c>
       <c r="C248">
-        <v>0.3576143282170596</v>
+        <v>0.003576143282170596</v>
       </c>
       <c r="D248" t="s">
         <v>15</v>

--- a/doc/PETR4cg_1anos.xlsx
+++ b/doc/PETR4cg_1anos.xlsx
@@ -184,9 +184,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$248</c:f>
+              <c:f>Retornos!$D$2:$D$247</c:f>
               <c:strCache>
-                <c:ptCount val="247"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>04/2024</c:v>
                 </c:pt>
@@ -923,9 +923,6 @@
                   <c:v>04/2023</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>04/2023</c:v>
-                </c:pt>
-                <c:pt idx="246">
                   <c:v>04/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -933,10 +930,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$B$2:$B$248</c:f>
+              <c:f>Retornos!$B$2:$B$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="247"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>0.005154639175257714</c:v>
                 </c:pt>
@@ -1674,9 +1671,6 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>0.01471453796350786</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>-0.002900232018561266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1696,9 +1690,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Retornos!$D$2:$D$248</c:f>
+              <c:f>Retornos!$D$2:$D$247</c:f>
               <c:strCache>
-                <c:ptCount val="247"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>04/2024</c:v>
                 </c:pt>
@@ -2435,9 +2429,6 @@
                   <c:v>04/2023</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>04/2023</c:v>
-                </c:pt>
-                <c:pt idx="246">
                   <c:v>04/2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -2445,10 +2436,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retornos!$C$2:$C$248</c:f>
+              <c:f>Retornos!$C$2:$C$247</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="247"/>
+                <c:ptCount val="246"/>
                 <c:pt idx="0">
                   <c:v>0.004401921411134824</c:v>
                 </c:pt>
@@ -3186,9 +3177,6 @@
                 </c:pt>
                 <c:pt idx="245">
                   <c:v>-0.008746527402840876</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.003576143282170596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3600,6 +3588,11 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
@@ -7083,6 +7076,11 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
